--- a/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,25 +629,25 @@
         <v>0.9987732674908133</v>
       </c>
       <c r="D3">
+        <v>1.002751092007889</v>
+      </c>
+      <c r="E3">
+        <v>0.9962781205289108</v>
+      </c>
+      <c r="F3">
+        <v>0.9988408124734716</v>
+      </c>
+      <c r="G3">
+        <v>0.9988686083565453</v>
+      </c>
+      <c r="H3">
         <v>1.004268447418196</v>
       </c>
-      <c r="E3">
-        <v>0.9988686083565453</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>1.004268447418196</v>
+      </c>
+      <c r="J3">
         <v>0.9987732674908133</v>
-      </c>
-      <c r="G3">
-        <v>0.9962781205289108</v>
-      </c>
-      <c r="H3">
-        <v>1.002751092007889</v>
-      </c>
-      <c r="I3">
-        <v>0.9988408124734716</v>
-      </c>
-      <c r="J3">
-        <v>1.004268447418196</v>
       </c>
       <c r="K3">
         <v>0.9987732674908133</v>
@@ -788,7 +680,7 @@
         <v>0.9999633913793042</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>0.9977267806518191</v>
       </c>
       <c r="D4">
+        <v>1.005302426911105</v>
+      </c>
+      <c r="E4">
+        <v>0.9927677798565065</v>
+      </c>
+      <c r="F4">
+        <v>0.9977590312372741</v>
+      </c>
+      <c r="G4">
+        <v>0.9977723031299367</v>
+      </c>
+      <c r="H4">
         <v>1.008268183688918</v>
       </c>
-      <c r="E4">
-        <v>0.9977723031299367</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
+        <v>1.008268183688918</v>
+      </c>
+      <c r="J4">
         <v>0.9977267806518191</v>
-      </c>
-      <c r="G4">
-        <v>0.9927677798565065</v>
-      </c>
-      <c r="H4">
-        <v>1.005302426911105</v>
-      </c>
-      <c r="I4">
-        <v>0.9977590312372741</v>
-      </c>
-      <c r="J4">
-        <v>1.008268183688918</v>
       </c>
       <c r="K4">
         <v>0.9977267806518191</v>
@@ -850,7 +742,7 @@
         <v>0.9999327509125933</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>0.995402403442619</v>
       </c>
       <c r="D5">
+        <v>1.01017804092162</v>
+      </c>
+      <c r="E5">
+        <v>0.9863076729050443</v>
+      </c>
+      <c r="F5">
+        <v>0.9957056962449401</v>
+      </c>
+      <c r="G5">
+        <v>0.995830513611814</v>
+      </c>
+      <c r="H5">
         <v>1.015848640465927</v>
       </c>
-      <c r="E5">
-        <v>0.995830513611814</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>1.015848640465927</v>
+      </c>
+      <c r="J5">
         <v>0.995402403442619</v>
-      </c>
-      <c r="G5">
-        <v>0.9863076729050443</v>
-      </c>
-      <c r="H5">
-        <v>1.01017804092162</v>
-      </c>
-      <c r="I5">
-        <v>0.9957056962449401</v>
-      </c>
-      <c r="J5">
-        <v>1.015848640465927</v>
       </c>
       <c r="K5">
         <v>0.995402403442619</v>
@@ -912,7 +804,7 @@
         <v>0.9998788279319942</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9931595304540762</v>
+        <v>0.9931595304540763</v>
       </c>
       <c r="D6">
+        <v>1.014941408110079</v>
+      </c>
+      <c r="E6">
+        <v>0.9799981172291444</v>
+      </c>
+      <c r="F6">
+        <v>0.9936968487712335</v>
+      </c>
+      <c r="G6">
+        <v>0.9939179782048226</v>
+      </c>
+      <c r="H6">
         <v>1.023234523643</v>
       </c>
-      <c r="E6">
-        <v>0.9939179782048226</v>
-      </c>
-      <c r="F6">
-        <v>0.9931595304540762</v>
-      </c>
-      <c r="G6">
-        <v>0.9799981172291444</v>
-      </c>
-      <c r="H6">
-        <v>1.014941408110079</v>
-      </c>
       <c r="I6">
-        <v>0.9936968487712337</v>
+        <v>1.023234523643</v>
       </c>
       <c r="J6">
-        <v>1.023234523643</v>
+        <v>0.9931595304540763</v>
       </c>
       <c r="K6">
-        <v>0.9931595304540762</v>
+        <v>0.9931595304540763</v>
       </c>
       <c r="L6">
         <v>0.9939179782048226</v>
@@ -971,10 +863,10 @@
         <v>1.000867890688994</v>
       </c>
       <c r="T6">
-        <v>0.9998247344020594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9998247344020593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,31 +877,31 @@
         <v>0.9999251856368109</v>
       </c>
       <c r="D7">
+        <v>1.000157964753519</v>
+      </c>
+      <c r="E7">
+        <v>0.999786031483576</v>
+      </c>
+      <c r="F7">
+        <v>0.999934072481901</v>
+      </c>
+      <c r="G7">
+        <v>0.9999377290703731</v>
+      </c>
+      <c r="H7">
         <v>1.000244826491733</v>
       </c>
-      <c r="E7">
-        <v>0.9999377290703727</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
+        <v>1.000244826491733</v>
+      </c>
+      <c r="J7">
         <v>0.9999251856368109</v>
-      </c>
-      <c r="G7">
-        <v>0.999786031483576</v>
-      </c>
-      <c r="H7">
-        <v>1.000157964753519</v>
-      </c>
-      <c r="I7">
-        <v>0.9999340724819014</v>
-      </c>
-      <c r="J7">
-        <v>1.000244826491733</v>
       </c>
       <c r="K7">
         <v>0.9999251856368109</v>
       </c>
       <c r="L7">
-        <v>0.9999377290703727</v>
+        <v>0.9999377290703731</v>
       </c>
       <c r="M7">
         <v>1.000091277781053</v>
@@ -1021,7 +913,7 @@
         <v>1.000113506771875</v>
       </c>
       <c r="P7">
-        <v>1.000035913732972</v>
+        <v>1.000035913732973</v>
       </c>
       <c r="Q7">
         <v>1.000035913732972</v>
@@ -1033,10 +925,10 @@
         <v>1.000008231708932</v>
       </c>
       <c r="T7">
-        <v>0.9999976349863188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.999997634986319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999445313772536</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="D8">
-        <v>1.000364811592839</v>
+        <v>1.000271751224679</v>
       </c>
       <c r="E8">
-        <v>0.9998712267286034</v>
+        <v>0.9995380847524081</v>
       </c>
       <c r="F8">
-        <v>0.9999445313772536</v>
+        <v>0.9998925987339849</v>
       </c>
       <c r="G8">
-        <v>0.9995380847524081</v>
+        <v>0.9998712267286035</v>
       </c>
       <c r="H8">
-        <v>1.000271751224679</v>
+        <v>1.000364811592838</v>
       </c>
       <c r="I8">
-        <v>0.9998925987339847</v>
+        <v>1.000364811592838</v>
       </c>
       <c r="J8">
-        <v>1.000364811592839</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="K8">
-        <v>0.9999445313772536</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="L8">
-        <v>0.9998712267286034</v>
+        <v>0.9998712267286035</v>
       </c>
       <c r="M8">
         <v>1.000118019160721</v>
@@ -1098,7 +990,7 @@
         <v>0.9999805007349613</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,25 +1001,25 @@
         <v>1.000097673401427</v>
       </c>
       <c r="D9">
+        <v>1.000340774617619</v>
+      </c>
+      <c r="E9">
+        <v>0.9992498586205952</v>
+      </c>
+      <c r="F9">
+        <v>0.9998690663500571</v>
+      </c>
+      <c r="G9">
+        <v>0.9997749889928897</v>
+      </c>
+      <c r="H9">
         <v>1.000400891685477</v>
       </c>
-      <c r="E9">
-        <v>0.9997749889928897</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>1.000400891685477</v>
+      </c>
+      <c r="J9">
         <v>1.000097673401427</v>
-      </c>
-      <c r="G9">
-        <v>0.9992498586205952</v>
-      </c>
-      <c r="H9">
-        <v>1.000340774617619</v>
-      </c>
-      <c r="I9">
-        <v>0.9998690663500571</v>
-      </c>
-      <c r="J9">
-        <v>1.000400891685477</v>
       </c>
       <c r="K9">
         <v>1.000097673401427</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999555422780109</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,31 +1060,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999961711074432</v>
+        <v>0.9999961711074434</v>
       </c>
       <c r="D10">
+        <v>1.000783445170443</v>
+      </c>
+      <c r="E10">
+        <v>0.9985057115777343</v>
+      </c>
+      <c r="F10">
+        <v>0.9996948437819032</v>
+      </c>
+      <c r="G10">
+        <v>0.9995708396672338</v>
+      </c>
+      <c r="H10">
         <v>1.000989324823397</v>
       </c>
-      <c r="E10">
-        <v>0.9995708396672338</v>
-      </c>
-      <c r="F10">
-        <v>0.9999961711074432</v>
-      </c>
-      <c r="G10">
-        <v>0.9985057115777343</v>
-      </c>
-      <c r="H10">
-        <v>1.000783445170443</v>
-      </c>
       <c r="I10">
-        <v>0.9996948437819032</v>
+        <v>1.000989324823397</v>
       </c>
       <c r="J10">
-        <v>1.000989324823397</v>
+        <v>0.9999961711074434</v>
       </c>
       <c r="K10">
-        <v>0.9999961711074432</v>
+        <v>0.9999961711074434</v>
       </c>
       <c r="L10">
         <v>0.9995708396672338</v>
@@ -1219,10 +1111,10 @@
         <v>1.000138126676379</v>
       </c>
       <c r="T10">
-        <v>0.9999233893546925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9999233893546924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,25 +1125,25 @@
         <v>1.000590482213261</v>
       </c>
       <c r="D11">
+        <v>1.001123626680617</v>
+      </c>
+      <c r="E11">
+        <v>0.9972128268631562</v>
+      </c>
+      <c r="F11">
+        <v>0.9995832106843364</v>
+      </c>
+      <c r="G11">
+        <v>0.9991686947989944</v>
+      </c>
+      <c r="H11">
         <v>1.001168336797182</v>
       </c>
-      <c r="E11">
-        <v>0.9991686947989944</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>1.001168336797182</v>
+      </c>
+      <c r="J11">
         <v>1.000590482213261</v>
-      </c>
-      <c r="G11">
-        <v>0.9972128268631562</v>
-      </c>
-      <c r="H11">
-        <v>1.001123626680617</v>
-      </c>
-      <c r="I11">
-        <v>0.9995832106843366</v>
-      </c>
-      <c r="J11">
-        <v>1.001168336797182</v>
       </c>
       <c r="K11">
         <v>1.000590482213261</v>
@@ -1281,10 +1173,10 @@
         <v>1.000379499005674</v>
       </c>
       <c r="T11">
-        <v>0.9998078630062577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9998078630062576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,25 +1187,25 @@
         <v>1.007948850453734</v>
       </c>
       <c r="D12">
+        <v>1.010700930437461</v>
+      </c>
+      <c r="E12">
+        <v>0.9680761378232576</v>
+      </c>
+      <c r="F12">
+        <v>0.996808684821475</v>
+      </c>
+      <c r="G12">
+        <v>0.9922242618361476</v>
+      </c>
+      <c r="H12">
         <v>1.004768340306986</v>
       </c>
-      <c r="E12">
-        <v>0.9922242618361476</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
+        <v>1.004768340306986</v>
+      </c>
+      <c r="J12">
         <v>1.007948850453734</v>
-      </c>
-      <c r="G12">
-        <v>0.9680761378232576</v>
-      </c>
-      <c r="H12">
-        <v>1.010700930437461</v>
-      </c>
-      <c r="I12">
-        <v>0.996808684821475</v>
-      </c>
-      <c r="J12">
-        <v>1.004768340306986</v>
       </c>
       <c r="K12">
         <v>1.007948850453734</v>
@@ -1346,7 +1238,7 @@
         <v>0.9967545342798436</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9956074142914958</v>
+        <v>0.9956074142914959</v>
       </c>
       <c r="D13">
+        <v>1.002587136763213</v>
+      </c>
+      <c r="E13">
+        <v>1.005855236564921</v>
+      </c>
+      <c r="F13">
+        <v>0.9974282299180249</v>
+      </c>
+      <c r="G13">
+        <v>0.998177534307139</v>
+      </c>
+      <c r="H13">
         <v>1.01543964510689</v>
       </c>
-      <c r="E13">
-        <v>0.998177534307139</v>
-      </c>
-      <c r="F13">
-        <v>0.9956074142914958</v>
-      </c>
-      <c r="G13">
-        <v>1.005855236564921</v>
-      </c>
-      <c r="H13">
-        <v>1.002587136763213</v>
-      </c>
       <c r="I13">
-        <v>0.9974282299180249</v>
+        <v>1.01543964510689</v>
       </c>
       <c r="J13">
-        <v>1.01543964510689</v>
+        <v>0.9956074142914959</v>
       </c>
       <c r="K13">
-        <v>0.9956074142914958</v>
+        <v>0.9956074142914959</v>
       </c>
       <c r="L13">
         <v>0.998177534307139</v>
@@ -1408,7 +1300,7 @@
         <v>1.002515866158614</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1419,25 +1311,25 @@
         <v>0.8683654100221746</v>
       </c>
       <c r="D14">
+        <v>1.069908386804345</v>
+      </c>
+      <c r="E14">
+        <v>1.037042717634341</v>
+      </c>
+      <c r="F14">
+        <v>0.9613445094087235</v>
+      </c>
+      <c r="G14">
+        <v>0.9996075141009682</v>
+      </c>
+      <c r="H14">
         <v>1.195336538870933</v>
       </c>
-      <c r="E14">
-        <v>0.9996075141009682</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
+        <v>1.195336538870933</v>
+      </c>
+      <c r="J14">
         <v>0.8683654100221746</v>
-      </c>
-      <c r="G14">
-        <v>1.037042717634341</v>
-      </c>
-      <c r="H14">
-        <v>1.069908386804345</v>
-      </c>
-      <c r="I14">
-        <v>0.9613445094087235</v>
-      </c>
-      <c r="J14">
-        <v>1.195336538870933</v>
       </c>
       <c r="K14">
         <v>0.8683654100221746</v>
@@ -1470,7 +1362,7 @@
         <v>1.021934179473581</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.029391363384149</v>
+        <v>1.02939136338415</v>
       </c>
       <c r="D15">
+        <v>1.017725212957323</v>
+      </c>
+      <c r="E15">
+        <v>0.9269737776323889</v>
+      </c>
+      <c r="F15">
+        <v>0.9958870446910365</v>
+      </c>
+      <c r="G15">
+        <v>0.9820992528748668</v>
+      </c>
+      <c r="H15">
         <v>0.9966820425640548</v>
       </c>
-      <c r="E15">
-        <v>0.9820992528748668</v>
-      </c>
-      <c r="F15">
-        <v>1.029391363384149</v>
-      </c>
-      <c r="G15">
-        <v>0.9269737776323889</v>
-      </c>
-      <c r="H15">
-        <v>1.017725212957323</v>
-      </c>
       <c r="I15">
-        <v>0.9958870446910365</v>
+        <v>0.9966820425640548</v>
       </c>
       <c r="J15">
-        <v>0.9966820425640548</v>
+        <v>1.02939136338415</v>
       </c>
       <c r="K15">
-        <v>1.029391363384149</v>
+        <v>1.02939136338415</v>
       </c>
       <c r="L15">
         <v>0.9820992528748668</v>
@@ -1532,7 +1424,7 @@
         <v>0.9914597823506366</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9996239710041067</v>
+        <v>0.9758462599633578</v>
       </c>
       <c r="D16">
-        <v>1.000226738380277</v>
+        <v>1.053533817349724</v>
       </c>
       <c r="E16">
-        <v>1.000116072830066</v>
+        <v>0.928795405540853</v>
       </c>
       <c r="F16">
-        <v>0.9996239710041067</v>
+        <v>0.9772013667225418</v>
       </c>
       <c r="G16">
-        <v>1.00037686525287</v>
+        <v>0.9777590263174686</v>
       </c>
       <c r="H16">
-        <v>1.000024792755926</v>
+        <v>1.085062801215676</v>
       </c>
       <c r="I16">
-        <v>0.9999726033774504</v>
+        <v>1.085062801215676</v>
       </c>
       <c r="J16">
-        <v>1.000226738380277</v>
+        <v>0.9758462599633578</v>
       </c>
       <c r="K16">
-        <v>0.9996239710041067</v>
+        <v>0.9758462599633578</v>
       </c>
       <c r="L16">
-        <v>1.000116072830066</v>
+        <v>0.9777590263174686</v>
       </c>
       <c r="M16">
-        <v>1.000171405605172</v>
+        <v>1.031410913766573</v>
       </c>
       <c r="N16">
-        <v>1.000171405605172</v>
+        <v>1.031410913766573</v>
       </c>
       <c r="O16">
-        <v>1.000122534655423</v>
+        <v>1.038785214960956</v>
       </c>
       <c r="P16">
-        <v>0.9999889274048166</v>
+        <v>1.012889362498834</v>
       </c>
       <c r="Q16">
-        <v>0.9999889274048167</v>
+        <v>1.012889362498834</v>
       </c>
       <c r="R16">
-        <v>0.9998976883046392</v>
+        <v>1.003628586864965</v>
       </c>
       <c r="S16">
-        <v>0.9998976883046392</v>
+        <v>1.003628586864965</v>
       </c>
       <c r="T16">
-        <v>1.000056840600116</v>
+        <v>0.9996997795182705</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000374380489023</v>
+        <v>0.9791491628716934</v>
       </c>
       <c r="D17">
-        <v>1.000077301379048</v>
+        <v>1.043723860198343</v>
       </c>
       <c r="E17">
-        <v>0.999750433502683</v>
+        <v>0.9432857415078679</v>
       </c>
       <c r="F17">
-        <v>1.000374380489023</v>
+        <v>0.9812719304062245</v>
       </c>
       <c r="G17">
-        <v>0.9991436705312982</v>
+        <v>0.9821454990043667</v>
       </c>
       <c r="H17">
-        <v>1.000223038977019</v>
+        <v>1.070587620175912</v>
       </c>
       <c r="I17">
-        <v>0.9999323423238272</v>
+        <v>1.070587620175912</v>
       </c>
       <c r="J17">
-        <v>1.000077301379048</v>
+        <v>0.9791491628716934</v>
       </c>
       <c r="K17">
-        <v>1.000374380489023</v>
+        <v>0.9791491628716934</v>
       </c>
       <c r="L17">
-        <v>0.999750433502683</v>
+        <v>0.9821454990043667</v>
       </c>
       <c r="M17">
-        <v>0.9999138674408656</v>
+        <v>1.026366559590139</v>
       </c>
       <c r="N17">
-        <v>0.9999138674408656</v>
+        <v>1.026366559590139</v>
       </c>
       <c r="O17">
-        <v>1.000016924619583</v>
+        <v>1.032152326459541</v>
       </c>
       <c r="P17">
-        <v>1.000067371790251</v>
+        <v>1.010627427350657</v>
       </c>
       <c r="Q17">
-        <v>1.000067371790251</v>
+        <v>1.010627427350657</v>
       </c>
       <c r="R17">
-        <v>1.000144123964944</v>
+        <v>1.002757861230916</v>
       </c>
       <c r="S17">
-        <v>1.000144123964944</v>
+        <v>1.002757861230916</v>
       </c>
       <c r="T17">
-        <v>0.9999168612004831</v>
+        <v>1.000027302360735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985957650988162</v>
+        <v>0.9860889991267578</v>
       </c>
       <c r="D18">
-        <v>1.001968096111069</v>
+        <v>1.023841581234961</v>
       </c>
       <c r="E18">
-        <v>0.9999725501575376</v>
+        <v>0.972382964692273</v>
       </c>
       <c r="F18">
-        <v>0.9985957650988162</v>
+        <v>0.9895329856945977</v>
       </c>
       <c r="G18">
-        <v>0.9999922884187286</v>
+        <v>0.9909502664316953</v>
       </c>
       <c r="H18">
-        <v>1.000880601309227</v>
+        <v>1.041117321917123</v>
       </c>
       <c r="I18">
-        <v>0.9995711549839924</v>
+        <v>1.041117321917123</v>
       </c>
       <c r="J18">
-        <v>1.001968096111069</v>
+        <v>0.9860889991267578</v>
       </c>
       <c r="K18">
-        <v>0.9985957650988162</v>
+        <v>0.9860889991267578</v>
       </c>
       <c r="L18">
-        <v>0.9999725501575376</v>
+        <v>0.9909502664316953</v>
       </c>
       <c r="M18">
-        <v>1.000970323134303</v>
+        <v>1.016033794174409</v>
       </c>
       <c r="N18">
-        <v>1.000970323134303</v>
+        <v>1.016033794174409</v>
       </c>
       <c r="O18">
-        <v>1.000940415859278</v>
+        <v>1.01863638986126</v>
       </c>
       <c r="P18">
-        <v>1.000178803789141</v>
+        <v>1.006052195825192</v>
       </c>
       <c r="Q18">
-        <v>1.000178803789141</v>
+        <v>1.006052195825192</v>
       </c>
       <c r="R18">
-        <v>0.9997830441165598</v>
+        <v>1.001061396650583</v>
       </c>
       <c r="S18">
-        <v>0.9997830441165598</v>
+        <v>1.001061396650583</v>
       </c>
       <c r="T18">
-        <v>1.000163409346562</v>
+        <v>1.000652353182901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9822479716759874</v>
+      </c>
+      <c r="D19">
+        <v>1.025724456755872</v>
+      </c>
+      <c r="E19">
+        <v>0.971538546585761</v>
+      </c>
+      <c r="F19">
+        <v>0.9889998043446291</v>
+      </c>
+      <c r="G19">
+        <v>0.9917783378883279</v>
+      </c>
+      <c r="H19">
+        <v>1.042562946063585</v>
+      </c>
+      <c r="I19">
+        <v>1.042562946063585</v>
+      </c>
+      <c r="J19">
+        <v>0.9822479716759874</v>
+      </c>
+      <c r="K19">
+        <v>0.9822479716759874</v>
+      </c>
+      <c r="L19">
+        <v>0.9917783378883279</v>
+      </c>
+      <c r="M19">
+        <v>1.017170641975957</v>
+      </c>
+      <c r="N19">
+        <v>1.017170641975957</v>
+      </c>
+      <c r="O19">
+        <v>1.020021913569262</v>
+      </c>
+      <c r="P19">
+        <v>1.005529751875967</v>
+      </c>
+      <c r="Q19">
+        <v>1.005529751875967</v>
+      </c>
+      <c r="R19">
+        <v>0.999709306825972</v>
+      </c>
+      <c r="S19">
+        <v>0.999709306825972</v>
+      </c>
+      <c r="T19">
+        <v>1.000475343885694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9996239710041067</v>
+      </c>
+      <c r="D20">
+        <v>1.000024792755926</v>
+      </c>
+      <c r="E20">
+        <v>1.00037686525287</v>
+      </c>
+      <c r="F20">
+        <v>0.9999726033774504</v>
+      </c>
+      <c r="G20">
+        <v>1.000116072830066</v>
+      </c>
+      <c r="H20">
+        <v>1.000226738380277</v>
+      </c>
+      <c r="I20">
+        <v>1.000226738380277</v>
+      </c>
+      <c r="J20">
+        <v>0.9996239710041067</v>
+      </c>
+      <c r="K20">
+        <v>0.9996239710041067</v>
+      </c>
+      <c r="L20">
+        <v>1.000116072830066</v>
+      </c>
+      <c r="M20">
+        <v>1.000171405605172</v>
+      </c>
+      <c r="N20">
+        <v>1.000171405605172</v>
+      </c>
+      <c r="O20">
+        <v>1.000122534655423</v>
+      </c>
+      <c r="P20">
+        <v>0.9999889274048167</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999889274048167</v>
+      </c>
+      <c r="R20">
+        <v>0.9998976883046392</v>
+      </c>
+      <c r="S20">
+        <v>0.9998976883046392</v>
+      </c>
+      <c r="T20">
+        <v>1.000056840600116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000374380489023</v>
+      </c>
+      <c r="D21">
+        <v>1.000223038977019</v>
+      </c>
+      <c r="E21">
+        <v>0.9991436705312982</v>
+      </c>
+      <c r="F21">
+        <v>0.9999323423238272</v>
+      </c>
+      <c r="G21">
+        <v>0.999750433502683</v>
+      </c>
+      <c r="H21">
+        <v>1.000077301379048</v>
+      </c>
+      <c r="I21">
+        <v>1.000077301379048</v>
+      </c>
+      <c r="J21">
+        <v>1.000374380489023</v>
+      </c>
+      <c r="K21">
+        <v>1.000374380489023</v>
+      </c>
+      <c r="L21">
+        <v>0.999750433502683</v>
+      </c>
+      <c r="M21">
+        <v>0.9999138674408655</v>
+      </c>
+      <c r="N21">
+        <v>0.9999138674408655</v>
+      </c>
+      <c r="O21">
+        <v>1.000016924619583</v>
+      </c>
+      <c r="P21">
+        <v>1.000067371790251</v>
+      </c>
+      <c r="Q21">
+        <v>1.000067371790251</v>
+      </c>
+      <c r="R21">
+        <v>1.000144123964944</v>
+      </c>
+      <c r="S21">
+        <v>1.000144123964944</v>
+      </c>
+      <c r="T21">
+        <v>0.9999168612004831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9985957650988161</v>
+      </c>
+      <c r="D22">
+        <v>1.000880601309227</v>
+      </c>
+      <c r="E22">
+        <v>0.9999922884187287</v>
+      </c>
+      <c r="F22">
+        <v>0.9995711549839924</v>
+      </c>
+      <c r="G22">
+        <v>0.9999725501575376</v>
+      </c>
+      <c r="H22">
+        <v>1.00196809611107</v>
+      </c>
+      <c r="I22">
+        <v>1.00196809611107</v>
+      </c>
+      <c r="J22">
+        <v>0.9985957650988161</v>
+      </c>
+      <c r="K22">
+        <v>0.9985957650988161</v>
+      </c>
+      <c r="L22">
+        <v>0.9999725501575376</v>
+      </c>
+      <c r="M22">
+        <v>1.000970323134303</v>
+      </c>
+      <c r="N22">
+        <v>1.000970323134303</v>
+      </c>
+      <c r="O22">
+        <v>1.000940415859278</v>
+      </c>
+      <c r="P22">
+        <v>1.000178803789141</v>
+      </c>
+      <c r="Q22">
+        <v>1.000178803789141</v>
+      </c>
+      <c r="R22">
+        <v>0.9997830441165598</v>
+      </c>
+      <c r="S22">
+        <v>0.9997830441165598</v>
+      </c>
+      <c r="T22">
+        <v>1.000163409346562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9950550695128915</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.002129782233088</v>
+      </c>
+      <c r="E23">
+        <v>1.001711134017113</v>
+      </c>
+      <c r="F23">
+        <v>0.9988963446589162</v>
+      </c>
+      <c r="G23">
+        <v>1.000477120071943</v>
+      </c>
+      <c r="H23">
         <v>1.00549247065234</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.00549247065234</v>
+      </c>
+      <c r="J23">
+        <v>0.9950550695128915</v>
+      </c>
+      <c r="K23">
+        <v>0.9950550695128915</v>
+      </c>
+      <c r="L23">
         <v>1.000477120071943</v>
       </c>
-      <c r="F19">
-        <v>0.9950550695128915</v>
-      </c>
-      <c r="G19">
-        <v>1.001711134017113</v>
-      </c>
-      <c r="H19">
-        <v>1.002129782233088</v>
-      </c>
-      <c r="I19">
-        <v>0.9988963446589161</v>
-      </c>
-      <c r="J19">
-        <v>1.00549247065234</v>
-      </c>
-      <c r="K19">
-        <v>0.9950550695128915</v>
-      </c>
-      <c r="L19">
-        <v>1.000477120071943</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.002984795362142</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.002984795362142</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00269979098579</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000341553412391</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000341553412391</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9990199324375164</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9990199324375164</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000626986857715</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9987732674908133</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="D3">
-        <v>1.002751092007889</v>
+        <v>1.026136808991355</v>
       </c>
       <c r="E3">
-        <v>0.9962781205289108</v>
+        <v>0.9691738219596535</v>
       </c>
       <c r="F3">
-        <v>0.9988408124734716</v>
+        <v>0.9886598429178652</v>
       </c>
       <c r="G3">
-        <v>0.9988686083565453</v>
+        <v>0.9902780696325637</v>
       </c>
       <c r="H3">
-        <v>1.004268447418196</v>
+        <v>1.044079757694524</v>
       </c>
       <c r="I3">
-        <v>1.004268447418196</v>
+        <v>1.044079757694524</v>
       </c>
       <c r="J3">
-        <v>0.9987732674908133</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="K3">
-        <v>0.9987732674908133</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="L3">
-        <v>0.9988686083565453</v>
+        <v>0.9902780696325637</v>
       </c>
       <c r="M3">
-        <v>1.00156852788737</v>
+        <v>1.017178913663544</v>
       </c>
       <c r="N3">
-        <v>1.00156852788737</v>
+        <v>1.017178913663544</v>
       </c>
       <c r="O3">
-        <v>1.001962715927543</v>
+        <v>1.020164878772814</v>
       </c>
       <c r="P3">
-        <v>1.000636774421851</v>
+        <v>1.006361793213257</v>
       </c>
       <c r="Q3">
-        <v>1.000636774421851</v>
+        <v>1.006361793213257</v>
       </c>
       <c r="R3">
-        <v>1.000170897689092</v>
+        <v>1.000953232988113</v>
       </c>
       <c r="S3">
-        <v>1.000170897689092</v>
+        <v>1.000953232988113</v>
       </c>
       <c r="T3">
-        <v>0.9999633913793042</v>
+        <v>1.000509308918107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9977267806518191</v>
+        <v>0.9852081646831944</v>
       </c>
       <c r="D4">
-        <v>1.005302426911105</v>
+        <v>1.024969866573799</v>
       </c>
       <c r="E4">
-        <v>0.9927677798565065</v>
+        <v>0.971045688829662</v>
       </c>
       <c r="F4">
-        <v>0.9977590312372741</v>
+        <v>0.9890933241325059</v>
       </c>
       <c r="G4">
-        <v>0.9977723031299367</v>
+        <v>0.990692155301897</v>
       </c>
       <c r="H4">
-        <v>1.008268183688918</v>
+        <v>1.042687933334888</v>
       </c>
       <c r="I4">
-        <v>1.008268183688918</v>
+        <v>1.042687933334888</v>
       </c>
       <c r="J4">
-        <v>0.9977267806518191</v>
+        <v>0.9852081646831944</v>
       </c>
       <c r="K4">
-        <v>0.9977267806518191</v>
+        <v>0.9852081646831944</v>
       </c>
       <c r="L4">
-        <v>0.9977723031299367</v>
+        <v>0.990692155301897</v>
       </c>
       <c r="M4">
-        <v>1.003020243409427</v>
+        <v>1.016690044318392</v>
       </c>
       <c r="N4">
-        <v>1.003020243409427</v>
+        <v>1.016690044318392</v>
       </c>
       <c r="O4">
-        <v>1.00378097124332</v>
+        <v>1.019449985070195</v>
       </c>
       <c r="P4">
-        <v>1.001255755823558</v>
+        <v>1.006196084439993</v>
       </c>
       <c r="Q4">
-        <v>1.001255755823558</v>
+        <v>1.006196084439993</v>
       </c>
       <c r="R4">
-        <v>1.000373512030623</v>
+        <v>1.000949104500793</v>
       </c>
       <c r="S4">
-        <v>1.000373512030623</v>
+        <v>1.000949104500793</v>
       </c>
       <c r="T4">
-        <v>0.9999327509125933</v>
+        <v>1.000616188809325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.995402403442619</v>
+        <v>0.9838973138814027</v>
       </c>
       <c r="D5">
-        <v>1.01017804092162</v>
+        <v>1.028348092506739</v>
       </c>
       <c r="E5">
-        <v>0.9863076729050443</v>
+        <v>0.9655432382479792</v>
       </c>
       <c r="F5">
-        <v>0.9957056962449401</v>
+        <v>0.9878403244743944</v>
       </c>
       <c r="G5">
-        <v>0.995830513611814</v>
+        <v>0.9894629629380047</v>
       </c>
       <c r="H5">
-        <v>1.015848640465927</v>
+        <v>1.04669109838275</v>
       </c>
       <c r="I5">
-        <v>1.015848640465927</v>
+        <v>1.04669109838275</v>
       </c>
       <c r="J5">
-        <v>0.995402403442619</v>
+        <v>0.9838973138814027</v>
       </c>
       <c r="K5">
-        <v>0.995402403442619</v>
+        <v>0.9838973138814027</v>
       </c>
       <c r="L5">
-        <v>0.995830513611814</v>
+        <v>0.9894629629380047</v>
       </c>
       <c r="M5">
-        <v>1.005839577038871</v>
+        <v>1.018077030660377</v>
       </c>
       <c r="N5">
-        <v>1.005839577038871</v>
+        <v>1.018077030660377</v>
       </c>
       <c r="O5">
-        <v>1.007285731666454</v>
+        <v>1.021500717942498</v>
       </c>
       <c r="P5">
-        <v>1.002360519173454</v>
+        <v>1.006683791734052</v>
       </c>
       <c r="Q5">
-        <v>1.002360519173454</v>
+        <v>1.006683791734052</v>
       </c>
       <c r="R5">
-        <v>1.000620990240745</v>
+        <v>1.00098717227089</v>
       </c>
       <c r="S5">
-        <v>1.000620990240745</v>
+        <v>1.00098717227089</v>
       </c>
       <c r="T5">
-        <v>0.9998788279319942</v>
+        <v>1.000297171738545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9931595304540763</v>
+        <v>0.9832202321590917</v>
       </c>
       <c r="D6">
-        <v>1.014941408110079</v>
+        <v>1.030406967727274</v>
       </c>
       <c r="E6">
-        <v>0.9799981172291444</v>
+        <v>0.9620633435795461</v>
       </c>
       <c r="F6">
-        <v>0.9936968487712335</v>
+        <v>0.9870795585227272</v>
       </c>
       <c r="G6">
-        <v>0.9939179782048226</v>
+        <v>0.9886677592045463</v>
       </c>
       <c r="H6">
-        <v>1.023234523643</v>
+        <v>1.049091373920454</v>
       </c>
       <c r="I6">
-        <v>1.023234523643</v>
+        <v>1.049091373920454</v>
       </c>
       <c r="J6">
-        <v>0.9931595304540763</v>
+        <v>0.9832202321590917</v>
       </c>
       <c r="K6">
-        <v>0.9931595304540763</v>
+        <v>0.9832202321590917</v>
       </c>
       <c r="L6">
-        <v>0.9939179782048226</v>
+        <v>0.9886677592045463</v>
       </c>
       <c r="M6">
-        <v>1.008576250923911</v>
+        <v>1.0188795665625</v>
       </c>
       <c r="N6">
-        <v>1.008576250923911</v>
+        <v>1.0188795665625</v>
       </c>
       <c r="O6">
-        <v>1.010697969985967</v>
+        <v>1.022722033617425</v>
       </c>
       <c r="P6">
-        <v>1.003437344100633</v>
+        <v>1.006993121761364</v>
       </c>
       <c r="Q6">
-        <v>1.003437344100633</v>
+        <v>1.006993121761364</v>
       </c>
       <c r="R6">
-        <v>1.000867890688994</v>
+        <v>1.001049899360796</v>
       </c>
       <c r="S6">
-        <v>1.000867890688994</v>
+        <v>1.001049899360796</v>
       </c>
       <c r="T6">
-        <v>0.9998247344020593</v>
+        <v>1.000088205852273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999251856368109</v>
+        <v>1.152706955276985</v>
       </c>
       <c r="D7">
-        <v>1.000157964753519</v>
+        <v>0.8096861630438348</v>
       </c>
       <c r="E7">
-        <v>0.999786031483576</v>
+        <v>1.15863023578887</v>
       </c>
       <c r="F7">
-        <v>0.999934072481901</v>
+        <v>1.088898864296787</v>
       </c>
       <c r="G7">
-        <v>0.9999377290703731</v>
+        <v>1.062640379338992</v>
       </c>
       <c r="H7">
-        <v>1.000244826491733</v>
+        <v>0.6260358882383744</v>
       </c>
       <c r="I7">
-        <v>1.000244826491733</v>
+        <v>0.6260358882383744</v>
       </c>
       <c r="J7">
-        <v>0.9999251856368109</v>
+        <v>1.152706955276985</v>
       </c>
       <c r="K7">
-        <v>0.9999251856368109</v>
+        <v>1.152706955276985</v>
       </c>
       <c r="L7">
-        <v>0.9999377290703731</v>
+        <v>1.062640379338992</v>
       </c>
       <c r="M7">
-        <v>1.000091277781053</v>
+        <v>0.8443381337886831</v>
       </c>
       <c r="N7">
-        <v>1.000091277781053</v>
+        <v>0.8443381337886831</v>
       </c>
       <c r="O7">
-        <v>1.000113506771875</v>
+        <v>0.8327874768737337</v>
       </c>
       <c r="P7">
-        <v>1.000035913732973</v>
+        <v>0.9471277409514504</v>
       </c>
       <c r="Q7">
-        <v>1.000035913732972</v>
+        <v>0.9471277409514501</v>
       </c>
       <c r="R7">
-        <v>1.000008231708932</v>
+        <v>0.9985225445328338</v>
       </c>
       <c r="S7">
-        <v>1.000008231708932</v>
+        <v>0.9985225445328338</v>
       </c>
       <c r="T7">
-        <v>0.999997634986319</v>
+        <v>0.9830997476639737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999445313772535</v>
+        <v>1.152097815865245</v>
       </c>
       <c r="D8">
-        <v>1.000271751224679</v>
+        <v>0.8109149600476444</v>
       </c>
       <c r="E8">
-        <v>0.9995380847524081</v>
+        <v>1.157116229625559</v>
       </c>
       <c r="F8">
-        <v>0.9998925987339849</v>
+        <v>1.08835711762352</v>
       </c>
       <c r="G8">
-        <v>0.9998712267286035</v>
+        <v>1.062126366375408</v>
       </c>
       <c r="H8">
-        <v>1.000364811592838</v>
+        <v>0.6281542297798428</v>
       </c>
       <c r="I8">
-        <v>1.000364811592838</v>
+        <v>0.6281542297798428</v>
       </c>
       <c r="J8">
-        <v>0.9999445313772535</v>
+        <v>1.152097815865245</v>
       </c>
       <c r="K8">
-        <v>0.9999445313772535</v>
+        <v>1.152097815865245</v>
       </c>
       <c r="L8">
-        <v>0.9998712267286035</v>
+        <v>1.062126366375408</v>
       </c>
       <c r="M8">
-        <v>1.000118019160721</v>
+        <v>0.8451402980776255</v>
       </c>
       <c r="N8">
-        <v>1.000118019160721</v>
+        <v>0.8451402980776255</v>
       </c>
       <c r="O8">
-        <v>1.00016926318204</v>
+        <v>0.8337318520676318</v>
       </c>
       <c r="P8">
-        <v>1.000060189899565</v>
+        <v>0.9474594706734986</v>
       </c>
       <c r="Q8">
-        <v>1.000060189899565</v>
+        <v>0.9474594706734986</v>
       </c>
       <c r="R8">
-        <v>1.000031275268987</v>
+        <v>0.998619056971435</v>
       </c>
       <c r="S8">
-        <v>1.000031275268987</v>
+        <v>0.998619056971435</v>
       </c>
       <c r="T8">
-        <v>0.9999805007349613</v>
+        <v>0.9831277865528699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000097673401427</v>
+        <v>1.151070137926946</v>
       </c>
       <c r="D9">
-        <v>1.000340774617619</v>
+        <v>0.8120860393198176</v>
       </c>
       <c r="E9">
-        <v>0.9992498586205952</v>
+        <v>1.156140664397397</v>
       </c>
       <c r="F9">
-        <v>0.9998690663500571</v>
+        <v>1.087828090221182</v>
       </c>
       <c r="G9">
-        <v>0.9997749889928897</v>
+        <v>1.061802544976712</v>
       </c>
       <c r="H9">
-        <v>1.000400891685477</v>
+        <v>0.630347083537721</v>
       </c>
       <c r="I9">
-        <v>1.000400891685477</v>
+        <v>0.630347083537721</v>
       </c>
       <c r="J9">
-        <v>1.000097673401427</v>
+        <v>1.151070137926946</v>
       </c>
       <c r="K9">
-        <v>1.000097673401427</v>
+        <v>1.151070137926946</v>
       </c>
       <c r="L9">
-        <v>0.9997749889928897</v>
+        <v>1.061802544976712</v>
       </c>
       <c r="M9">
-        <v>1.000087940339183</v>
+        <v>0.8460748142572163</v>
       </c>
       <c r="N9">
-        <v>1.000087940339183</v>
+        <v>0.8460748142572163</v>
       </c>
       <c r="O9">
-        <v>1.000172218431995</v>
+        <v>0.8347452226114167</v>
       </c>
       <c r="P9">
-        <v>1.000091184693265</v>
+        <v>0.9477399221471261</v>
       </c>
       <c r="Q9">
-        <v>1.000091184693265</v>
+        <v>0.9477399221471261</v>
       </c>
       <c r="R9">
-        <v>1.000092806870305</v>
+        <v>0.9985724760920811</v>
       </c>
       <c r="S9">
-        <v>1.000092806870305</v>
+        <v>0.9985724760920811</v>
       </c>
       <c r="T9">
-        <v>0.9999555422780109</v>
+        <v>0.9832124267299625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999961711074434</v>
+        <v>1.151194444014</v>
       </c>
       <c r="D10">
-        <v>1.000783445170443</v>
+        <v>0.8138129939697293</v>
       </c>
       <c r="E10">
-        <v>0.9985057115777343</v>
+        <v>1.152991892584881</v>
       </c>
       <c r="F10">
-        <v>0.9996948437819032</v>
+        <v>1.087091101117394</v>
       </c>
       <c r="G10">
-        <v>0.9995708396672338</v>
+        <v>1.060711113705806</v>
       </c>
       <c r="H10">
-        <v>1.000989324823397</v>
+        <v>0.6329944370211416</v>
       </c>
       <c r="I10">
-        <v>1.000989324823397</v>
+        <v>0.6329944370211416</v>
       </c>
       <c r="J10">
-        <v>0.9999961711074434</v>
+        <v>1.151194444014</v>
       </c>
       <c r="K10">
-        <v>0.9999961711074434</v>
+        <v>1.151194444014</v>
       </c>
       <c r="L10">
-        <v>0.9995708396672338</v>
+        <v>1.060711113705806</v>
       </c>
       <c r="M10">
-        <v>1.000280082245316</v>
+        <v>0.8468527753634736</v>
       </c>
       <c r="N10">
-        <v>1.000280082245316</v>
+        <v>0.8468527753634736</v>
       </c>
       <c r="O10">
-        <v>1.000447869887025</v>
+        <v>0.8358395148988921</v>
       </c>
       <c r="P10">
-        <v>1.000185445199358</v>
+        <v>0.9482999982469824</v>
       </c>
       <c r="Q10">
-        <v>1.000185445199358</v>
+        <v>0.9482999982469824</v>
       </c>
       <c r="R10">
-        <v>1.000138126676379</v>
+        <v>0.9990236096887368</v>
       </c>
       <c r="S10">
-        <v>1.000138126676379</v>
+        <v>0.9990236096887368</v>
       </c>
       <c r="T10">
-        <v>0.9999233893546924</v>
+        <v>0.9831326637354918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000590482213261</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="D11">
-        <v>1.001123626680617</v>
+        <v>1.002171297766973</v>
       </c>
       <c r="E11">
-        <v>0.9972128268631562</v>
+        <v>0.9961979012810097</v>
       </c>
       <c r="F11">
-        <v>0.9995832106843364</v>
+        <v>0.9991240828283714</v>
       </c>
       <c r="G11">
-        <v>0.9991686947989944</v>
+        <v>0.9988506909246985</v>
       </c>
       <c r="H11">
-        <v>1.001168336797182</v>
+        <v>1.002944433919935</v>
       </c>
       <c r="I11">
-        <v>1.001168336797182</v>
+        <v>1.002944433919935</v>
       </c>
       <c r="J11">
-        <v>1.000590482213261</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="K11">
-        <v>1.000590482213261</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="L11">
-        <v>0.9991686947989944</v>
+        <v>0.9988506909246985</v>
       </c>
       <c r="M11">
-        <v>1.000168515798088</v>
+        <v>1.000897562422317</v>
       </c>
       <c r="N11">
-        <v>1.000168515798088</v>
+        <v>1.000897562422317</v>
       </c>
       <c r="O11">
-        <v>1.000486886092264</v>
+        <v>1.001322140870536</v>
       </c>
       <c r="P11">
-        <v>1.000309171269812</v>
+        <v>1.000527850091677</v>
       </c>
       <c r="Q11">
-        <v>1.000309171269812</v>
+        <v>1.000527850091677</v>
       </c>
       <c r="R11">
-        <v>1.000379499005674</v>
+        <v>1.000342993926358</v>
       </c>
       <c r="S11">
-        <v>1.000379499005674</v>
+        <v>1.000342993926358</v>
       </c>
       <c r="T11">
-        <v>0.9998078630062576</v>
+        <v>0.9998461386918978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.007948850453734</v>
+        <v>1.000045769157313</v>
       </c>
       <c r="D12">
-        <v>1.010700930437461</v>
+        <v>1.000371543886765</v>
       </c>
       <c r="E12">
-        <v>0.9680761378232576</v>
+        <v>0.999148602799887</v>
       </c>
       <c r="F12">
-        <v>0.996808684821475</v>
+        <v>0.9998802466770526</v>
       </c>
       <c r="G12">
-        <v>0.9922242618361476</v>
+        <v>0.9998121299192915</v>
       </c>
       <c r="H12">
-        <v>1.004768340306986</v>
+        <v>1.000258800285181</v>
       </c>
       <c r="I12">
-        <v>1.004768340306986</v>
+        <v>1.000258800285181</v>
       </c>
       <c r="J12">
-        <v>1.007948850453734</v>
+        <v>1.000045769157313</v>
       </c>
       <c r="K12">
-        <v>1.007948850453734</v>
+        <v>1.000045769157313</v>
       </c>
       <c r="L12">
-        <v>0.9922242618361476</v>
+        <v>0.9998121299192915</v>
       </c>
       <c r="M12">
-        <v>0.9984963010715668</v>
+        <v>1.000035465102236</v>
       </c>
       <c r="N12">
-        <v>0.9984963010715668</v>
+        <v>1.000035465102236</v>
       </c>
       <c r="O12">
-        <v>1.002564510860198</v>
+        <v>1.000147491363746</v>
       </c>
       <c r="P12">
-        <v>1.001647150865623</v>
+        <v>1.000038899787262</v>
       </c>
       <c r="Q12">
-        <v>1.001647150865623</v>
+        <v>1.000038899787262</v>
       </c>
       <c r="R12">
-        <v>1.003222575762651</v>
+        <v>1.000040617129775</v>
       </c>
       <c r="S12">
-        <v>1.003222575762651</v>
+        <v>1.000040617129775</v>
       </c>
       <c r="T12">
-        <v>0.9967545342798436</v>
+        <v>0.9999195154542484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9956074142914959</v>
+        <v>0.9998821308576537</v>
       </c>
       <c r="D13">
-        <v>1.002587136763213</v>
+        <v>1.000996640611997</v>
       </c>
       <c r="E13">
-        <v>1.005855236564921</v>
+        <v>0.9978346659650742</v>
       </c>
       <c r="F13">
-        <v>0.9974282299180249</v>
+        <v>0.9997041475768575</v>
       </c>
       <c r="G13">
-        <v>0.998177534307139</v>
+        <v>0.9996309009040499</v>
       </c>
       <c r="H13">
-        <v>1.01543964510689</v>
+        <v>1.000539796354083</v>
       </c>
       <c r="I13">
-        <v>1.01543964510689</v>
+        <v>1.000539796354083</v>
       </c>
       <c r="J13">
-        <v>0.9956074142914959</v>
+        <v>0.9998821308576537</v>
       </c>
       <c r="K13">
-        <v>0.9956074142914959</v>
+        <v>0.9998821308576537</v>
       </c>
       <c r="L13">
-        <v>0.998177534307139</v>
+        <v>0.9996309009040499</v>
       </c>
       <c r="M13">
-        <v>1.006808589707014</v>
+        <v>1.000085348629066</v>
       </c>
       <c r="N13">
-        <v>1.006808589707014</v>
+        <v>1.000085348629066</v>
       </c>
       <c r="O13">
-        <v>1.005401438725747</v>
+        <v>1.000389112623376</v>
       </c>
       <c r="P13">
-        <v>1.003074864568508</v>
+        <v>1.000017609371929</v>
       </c>
       <c r="Q13">
-        <v>1.003074864568508</v>
+        <v>1.000017609371929</v>
       </c>
       <c r="R13">
-        <v>1.001208001999255</v>
+        <v>0.99998373974336</v>
       </c>
       <c r="S13">
-        <v>1.001208001999255</v>
+        <v>0.99998373974336</v>
       </c>
       <c r="T13">
-        <v>1.002515866158614</v>
+        <v>0.9997647137116191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8683654100221746</v>
+        <v>0.9965744339938449</v>
       </c>
       <c r="D14">
-        <v>1.069908386804345</v>
+        <v>1.007605482607255</v>
       </c>
       <c r="E14">
-        <v>1.037042717634341</v>
+        <v>0.9897841984058209</v>
       </c>
       <c r="F14">
-        <v>0.9613445094087235</v>
+        <v>0.9967841096810452</v>
       </c>
       <c r="G14">
-        <v>0.9996075141009682</v>
+        <v>0.9968704024556299</v>
       </c>
       <c r="H14">
-        <v>1.195336538870933</v>
+        <v>1.011903883576488</v>
       </c>
       <c r="I14">
-        <v>1.195336538870933</v>
+        <v>1.011903883576488</v>
       </c>
       <c r="J14">
-        <v>0.8683654100221746</v>
+        <v>0.9965744339938449</v>
       </c>
       <c r="K14">
-        <v>0.8683654100221746</v>
+        <v>0.9965744339938449</v>
       </c>
       <c r="L14">
-        <v>0.9996075141009682</v>
+        <v>0.9968704024556299</v>
       </c>
       <c r="M14">
-        <v>1.097472026485951</v>
+        <v>1.004387143016059</v>
       </c>
       <c r="N14">
-        <v>1.097472026485951</v>
+        <v>1.004387143016059</v>
       </c>
       <c r="O14">
-        <v>1.088284146592082</v>
+        <v>1.005459922879791</v>
       </c>
       <c r="P14">
-        <v>1.021103154331359</v>
+        <v>1.001782906675321</v>
       </c>
       <c r="Q14">
-        <v>1.021103154331359</v>
+        <v>1.001782906675321</v>
       </c>
       <c r="R14">
-        <v>0.9829187182540626</v>
+        <v>1.000480788504952</v>
       </c>
       <c r="S14">
-        <v>0.9829187182540626</v>
+        <v>1.000480788504952</v>
       </c>
       <c r="T14">
-        <v>1.021934179473581</v>
+        <v>0.9999204184533473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.02939136338415</v>
+        <v>0.9987732674908133</v>
       </c>
       <c r="D15">
-        <v>1.017725212957323</v>
+        <v>1.002751092007889</v>
       </c>
       <c r="E15">
-        <v>0.9269737776323889</v>
+        <v>0.9962781205289108</v>
       </c>
       <c r="F15">
-        <v>0.9958870446910365</v>
+        <v>0.9988408124734716</v>
       </c>
       <c r="G15">
-        <v>0.9820992528748668</v>
+        <v>0.9988686083565453</v>
       </c>
       <c r="H15">
-        <v>0.9966820425640548</v>
+        <v>1.004268447418196</v>
       </c>
       <c r="I15">
-        <v>0.9966820425640548</v>
+        <v>1.004268447418196</v>
       </c>
       <c r="J15">
-        <v>1.02939136338415</v>
+        <v>0.9987732674908133</v>
       </c>
       <c r="K15">
-        <v>1.02939136338415</v>
+        <v>0.9987732674908133</v>
       </c>
       <c r="L15">
-        <v>0.9820992528748668</v>
+        <v>0.9988686083565453</v>
       </c>
       <c r="M15">
-        <v>0.9893906477194607</v>
+        <v>1.00156852788737</v>
       </c>
       <c r="N15">
-        <v>0.9893906477194607</v>
+        <v>1.00156852788737</v>
       </c>
       <c r="O15">
-        <v>0.9988355027987482</v>
+        <v>1.001962715927543</v>
       </c>
       <c r="P15">
-        <v>1.00272421960769</v>
+        <v>1.000636774421851</v>
       </c>
       <c r="Q15">
-        <v>1.00272421960769</v>
+        <v>1.000636774421851</v>
       </c>
       <c r="R15">
-        <v>1.009391005551805</v>
+        <v>1.000170897689092</v>
       </c>
       <c r="S15">
-        <v>1.009391005551805</v>
+        <v>1.000170897689092</v>
       </c>
       <c r="T15">
-        <v>0.9914597823506366</v>
+        <v>0.9999633913793042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9758462599633578</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="D16">
-        <v>1.053533817349724</v>
+        <v>1.005302426911105</v>
       </c>
       <c r="E16">
-        <v>0.928795405540853</v>
+        <v>0.9927677798565065</v>
       </c>
       <c r="F16">
-        <v>0.9772013667225418</v>
+        <v>0.9977590312372741</v>
       </c>
       <c r="G16">
-        <v>0.9777590263174686</v>
+        <v>0.9977723031299367</v>
       </c>
       <c r="H16">
-        <v>1.085062801215676</v>
+        <v>1.008268183688918</v>
       </c>
       <c r="I16">
-        <v>1.085062801215676</v>
+        <v>1.008268183688918</v>
       </c>
       <c r="J16">
-        <v>0.9758462599633578</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="K16">
-        <v>0.9758462599633578</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="L16">
-        <v>0.9777590263174686</v>
+        <v>0.9977723031299367</v>
       </c>
       <c r="M16">
-        <v>1.031410913766573</v>
+        <v>1.003020243409427</v>
       </c>
       <c r="N16">
-        <v>1.031410913766573</v>
+        <v>1.003020243409427</v>
       </c>
       <c r="O16">
-        <v>1.038785214960956</v>
+        <v>1.00378097124332</v>
       </c>
       <c r="P16">
-        <v>1.012889362498834</v>
+        <v>1.001255755823558</v>
       </c>
       <c r="Q16">
-        <v>1.012889362498834</v>
+        <v>1.001255755823558</v>
       </c>
       <c r="R16">
-        <v>1.003628586864965</v>
+        <v>1.000373512030623</v>
       </c>
       <c r="S16">
-        <v>1.003628586864965</v>
+        <v>1.000373512030623</v>
       </c>
       <c r="T16">
-        <v>0.9996997795182705</v>
+        <v>0.9999327509125933</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9791491628716934</v>
+        <v>0.995402403442619</v>
       </c>
       <c r="D17">
-        <v>1.043723860198343</v>
+        <v>1.01017804092162</v>
       </c>
       <c r="E17">
-        <v>0.9432857415078679</v>
+        <v>0.9863076729050443</v>
       </c>
       <c r="F17">
-        <v>0.9812719304062245</v>
+        <v>0.9957056962449401</v>
       </c>
       <c r="G17">
-        <v>0.9821454990043667</v>
+        <v>0.995830513611814</v>
       </c>
       <c r="H17">
-        <v>1.070587620175912</v>
+        <v>1.015848640465927</v>
       </c>
       <c r="I17">
-        <v>1.070587620175912</v>
+        <v>1.015848640465927</v>
       </c>
       <c r="J17">
-        <v>0.9791491628716934</v>
+        <v>0.995402403442619</v>
       </c>
       <c r="K17">
-        <v>0.9791491628716934</v>
+        <v>0.995402403442619</v>
       </c>
       <c r="L17">
-        <v>0.9821454990043667</v>
+        <v>0.995830513611814</v>
       </c>
       <c r="M17">
-        <v>1.026366559590139</v>
+        <v>1.005839577038871</v>
       </c>
       <c r="N17">
-        <v>1.026366559590139</v>
+        <v>1.005839577038871</v>
       </c>
       <c r="O17">
-        <v>1.032152326459541</v>
+        <v>1.007285731666454</v>
       </c>
       <c r="P17">
-        <v>1.010627427350657</v>
+        <v>1.002360519173454</v>
       </c>
       <c r="Q17">
-        <v>1.010627427350657</v>
+        <v>1.002360519173454</v>
       </c>
       <c r="R17">
-        <v>1.002757861230916</v>
+        <v>1.000620990240745</v>
       </c>
       <c r="S17">
-        <v>1.002757861230916</v>
+        <v>1.000620990240745</v>
       </c>
       <c r="T17">
-        <v>1.000027302360735</v>
+        <v>0.9998788279319942</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9860889991267578</v>
+        <v>0.9931595304540763</v>
       </c>
       <c r="D18">
-        <v>1.023841581234961</v>
+        <v>1.014941408110079</v>
       </c>
       <c r="E18">
-        <v>0.972382964692273</v>
+        <v>0.9799981172291444</v>
       </c>
       <c r="F18">
-        <v>0.9895329856945977</v>
+        <v>0.9936968487712335</v>
       </c>
       <c r="G18">
-        <v>0.9909502664316953</v>
+        <v>0.9939179782048226</v>
       </c>
       <c r="H18">
-        <v>1.041117321917123</v>
+        <v>1.023234523643</v>
       </c>
       <c r="I18">
-        <v>1.041117321917123</v>
+        <v>1.023234523643</v>
       </c>
       <c r="J18">
-        <v>0.9860889991267578</v>
+        <v>0.9931595304540763</v>
       </c>
       <c r="K18">
-        <v>0.9860889991267578</v>
+        <v>0.9931595304540763</v>
       </c>
       <c r="L18">
-        <v>0.9909502664316953</v>
+        <v>0.9939179782048226</v>
       </c>
       <c r="M18">
-        <v>1.016033794174409</v>
+        <v>1.008576250923911</v>
       </c>
       <c r="N18">
-        <v>1.016033794174409</v>
+        <v>1.008576250923911</v>
       </c>
       <c r="O18">
-        <v>1.01863638986126</v>
+        <v>1.010697969985967</v>
       </c>
       <c r="P18">
-        <v>1.006052195825192</v>
+        <v>1.003437344100633</v>
       </c>
       <c r="Q18">
-        <v>1.006052195825192</v>
+        <v>1.003437344100633</v>
       </c>
       <c r="R18">
-        <v>1.001061396650583</v>
+        <v>1.000867890688994</v>
       </c>
       <c r="S18">
-        <v>1.001061396650583</v>
+        <v>1.000867890688994</v>
       </c>
       <c r="T18">
-        <v>1.000652353182901</v>
+        <v>0.9998247344020593</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9822479716759874</v>
+        <v>0.9999251856368109</v>
       </c>
       <c r="D19">
-        <v>1.025724456755872</v>
+        <v>1.000157964753519</v>
       </c>
       <c r="E19">
-        <v>0.971538546585761</v>
+        <v>0.999786031483576</v>
       </c>
       <c r="F19">
-        <v>0.9889998043446291</v>
+        <v>0.999934072481901</v>
       </c>
       <c r="G19">
-        <v>0.9917783378883279</v>
+        <v>0.9999377290703731</v>
       </c>
       <c r="H19">
-        <v>1.042562946063585</v>
+        <v>1.000244826491733</v>
       </c>
       <c r="I19">
-        <v>1.042562946063585</v>
+        <v>1.000244826491733</v>
       </c>
       <c r="J19">
-        <v>0.9822479716759874</v>
+        <v>0.9999251856368109</v>
       </c>
       <c r="K19">
-        <v>0.9822479716759874</v>
+        <v>0.9999251856368109</v>
       </c>
       <c r="L19">
-        <v>0.9917783378883279</v>
+        <v>0.9999377290703731</v>
       </c>
       <c r="M19">
-        <v>1.017170641975957</v>
+        <v>1.000091277781053</v>
       </c>
       <c r="N19">
-        <v>1.017170641975957</v>
+        <v>1.000091277781053</v>
       </c>
       <c r="O19">
-        <v>1.020021913569262</v>
+        <v>1.000113506771875</v>
       </c>
       <c r="P19">
-        <v>1.005529751875967</v>
+        <v>1.000035913732973</v>
       </c>
       <c r="Q19">
-        <v>1.005529751875967</v>
+        <v>1.000035913732972</v>
       </c>
       <c r="R19">
-        <v>0.999709306825972</v>
+        <v>1.000008231708932</v>
       </c>
       <c r="S19">
-        <v>0.999709306825972</v>
+        <v>1.000008231708932</v>
       </c>
       <c r="T19">
-        <v>1.000475343885694</v>
+        <v>0.999997634986319</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9996239710041067</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="D20">
-        <v>1.000024792755926</v>
+        <v>1.000271751224679</v>
       </c>
       <c r="E20">
-        <v>1.00037686525287</v>
+        <v>0.9995380847524081</v>
       </c>
       <c r="F20">
-        <v>0.9999726033774504</v>
+        <v>0.9998925987339849</v>
       </c>
       <c r="G20">
-        <v>1.000116072830066</v>
+        <v>0.9998712267286035</v>
       </c>
       <c r="H20">
-        <v>1.000226738380277</v>
+        <v>1.000364811592838</v>
       </c>
       <c r="I20">
-        <v>1.000226738380277</v>
+        <v>1.000364811592838</v>
       </c>
       <c r="J20">
-        <v>0.9996239710041067</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="K20">
-        <v>0.9996239710041067</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="L20">
-        <v>1.000116072830066</v>
+        <v>0.9998712267286035</v>
       </c>
       <c r="M20">
-        <v>1.000171405605172</v>
+        <v>1.000118019160721</v>
       </c>
       <c r="N20">
-        <v>1.000171405605172</v>
+        <v>1.000118019160721</v>
       </c>
       <c r="O20">
-        <v>1.000122534655423</v>
+        <v>1.00016926318204</v>
       </c>
       <c r="P20">
-        <v>0.9999889274048167</v>
+        <v>1.000060189899565</v>
       </c>
       <c r="Q20">
-        <v>0.9999889274048167</v>
+        <v>1.000060189899565</v>
       </c>
       <c r="R20">
-        <v>0.9998976883046392</v>
+        <v>1.000031275268987</v>
       </c>
       <c r="S20">
-        <v>0.9998976883046392</v>
+        <v>1.000031275268987</v>
       </c>
       <c r="T20">
-        <v>1.000056840600116</v>
+        <v>0.9999805007349613</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000374380489023</v>
+        <v>1.000097673401427</v>
       </c>
       <c r="D21">
-        <v>1.000223038977019</v>
+        <v>1.000340774617619</v>
       </c>
       <c r="E21">
-        <v>0.9991436705312982</v>
+        <v>0.9992498586205952</v>
       </c>
       <c r="F21">
-        <v>0.9999323423238272</v>
+        <v>0.9998690663500571</v>
       </c>
       <c r="G21">
-        <v>0.999750433502683</v>
+        <v>0.9997749889928897</v>
       </c>
       <c r="H21">
-        <v>1.000077301379048</v>
+        <v>1.000400891685477</v>
       </c>
       <c r="I21">
-        <v>1.000077301379048</v>
+        <v>1.000400891685477</v>
       </c>
       <c r="J21">
-        <v>1.000374380489023</v>
+        <v>1.000097673401427</v>
       </c>
       <c r="K21">
-        <v>1.000374380489023</v>
+        <v>1.000097673401427</v>
       </c>
       <c r="L21">
-        <v>0.999750433502683</v>
+        <v>0.9997749889928897</v>
       </c>
       <c r="M21">
-        <v>0.9999138674408655</v>
+        <v>1.000087940339183</v>
       </c>
       <c r="N21">
-        <v>0.9999138674408655</v>
+        <v>1.000087940339183</v>
       </c>
       <c r="O21">
-        <v>1.000016924619583</v>
+        <v>1.000172218431995</v>
       </c>
       <c r="P21">
-        <v>1.000067371790251</v>
+        <v>1.000091184693265</v>
       </c>
       <c r="Q21">
-        <v>1.000067371790251</v>
+        <v>1.000091184693265</v>
       </c>
       <c r="R21">
-        <v>1.000144123964944</v>
+        <v>1.000092806870305</v>
       </c>
       <c r="S21">
-        <v>1.000144123964944</v>
+        <v>1.000092806870305</v>
       </c>
       <c r="T21">
-        <v>0.9999168612004831</v>
+        <v>0.9999555422780109</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9985957650988161</v>
+        <v>0.9999961711074434</v>
       </c>
       <c r="D22">
-        <v>1.000880601309227</v>
+        <v>1.000783445170443</v>
       </c>
       <c r="E22">
-        <v>0.9999922884187287</v>
+        <v>0.9985057115777343</v>
       </c>
       <c r="F22">
-        <v>0.9995711549839924</v>
+        <v>0.9996948437819032</v>
       </c>
       <c r="G22">
-        <v>0.9999725501575376</v>
+        <v>0.9995708396672338</v>
       </c>
       <c r="H22">
-        <v>1.00196809611107</v>
+        <v>1.000989324823397</v>
       </c>
       <c r="I22">
-        <v>1.00196809611107</v>
+        <v>1.000989324823397</v>
       </c>
       <c r="J22">
-        <v>0.9985957650988161</v>
+        <v>0.9999961711074434</v>
       </c>
       <c r="K22">
-        <v>0.9985957650988161</v>
+        <v>0.9999961711074434</v>
       </c>
       <c r="L22">
-        <v>0.9999725501575376</v>
+        <v>0.9995708396672338</v>
       </c>
       <c r="M22">
-        <v>1.000970323134303</v>
+        <v>1.000280082245316</v>
       </c>
       <c r="N22">
-        <v>1.000970323134303</v>
+        <v>1.000280082245316</v>
       </c>
       <c r="O22">
-        <v>1.000940415859278</v>
+        <v>1.000447869887025</v>
       </c>
       <c r="P22">
-        <v>1.000178803789141</v>
+        <v>1.000185445199358</v>
       </c>
       <c r="Q22">
-        <v>1.000178803789141</v>
+        <v>1.000185445199358</v>
       </c>
       <c r="R22">
-        <v>0.9997830441165598</v>
+        <v>1.000138126676379</v>
       </c>
       <c r="S22">
-        <v>0.9997830441165598</v>
+        <v>1.000138126676379</v>
       </c>
       <c r="T22">
-        <v>1.000163409346562</v>
+        <v>0.9999233893546924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000590482213261</v>
+      </c>
+      <c r="D23">
+        <v>1.001123626680617</v>
+      </c>
+      <c r="E23">
+        <v>0.9972128268631562</v>
+      </c>
+      <c r="F23">
+        <v>0.9995832106843364</v>
+      </c>
+      <c r="G23">
+        <v>0.9991686947989944</v>
+      </c>
+      <c r="H23">
+        <v>1.001168336797182</v>
+      </c>
+      <c r="I23">
+        <v>1.001168336797182</v>
+      </c>
+      <c r="J23">
+        <v>1.000590482213261</v>
+      </c>
+      <c r="K23">
+        <v>1.000590482213261</v>
+      </c>
+      <c r="L23">
+        <v>0.9991686947989944</v>
+      </c>
+      <c r="M23">
+        <v>1.000168515798088</v>
+      </c>
+      <c r="N23">
+        <v>1.000168515798088</v>
+      </c>
+      <c r="O23">
+        <v>1.000486886092264</v>
+      </c>
+      <c r="P23">
+        <v>1.000309171269812</v>
+      </c>
+      <c r="Q23">
+        <v>1.000309171269812</v>
+      </c>
+      <c r="R23">
+        <v>1.000379499005674</v>
+      </c>
+      <c r="S23">
+        <v>1.000379499005674</v>
+      </c>
+      <c r="T23">
+        <v>0.9998078630062576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.007948850453734</v>
+      </c>
+      <c r="D24">
+        <v>1.010700930437461</v>
+      </c>
+      <c r="E24">
+        <v>0.9680761378232576</v>
+      </c>
+      <c r="F24">
+        <v>0.996808684821475</v>
+      </c>
+      <c r="G24">
+        <v>0.9922242618361476</v>
+      </c>
+      <c r="H24">
+        <v>1.004768340306986</v>
+      </c>
+      <c r="I24">
+        <v>1.004768340306986</v>
+      </c>
+      <c r="J24">
+        <v>1.007948850453734</v>
+      </c>
+      <c r="K24">
+        <v>1.007948850453734</v>
+      </c>
+      <c r="L24">
+        <v>0.9922242618361476</v>
+      </c>
+      <c r="M24">
+        <v>0.9984963010715668</v>
+      </c>
+      <c r="N24">
+        <v>0.9984963010715668</v>
+      </c>
+      <c r="O24">
+        <v>1.002564510860198</v>
+      </c>
+      <c r="P24">
+        <v>1.001647150865623</v>
+      </c>
+      <c r="Q24">
+        <v>1.001647150865623</v>
+      </c>
+      <c r="R24">
+        <v>1.003222575762651</v>
+      </c>
+      <c r="S24">
+        <v>1.003222575762651</v>
+      </c>
+      <c r="T24">
+        <v>0.9967545342798436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9956074142914959</v>
+      </c>
+      <c r="D25">
+        <v>1.002587136763213</v>
+      </c>
+      <c r="E25">
+        <v>1.005855236564921</v>
+      </c>
+      <c r="F25">
+        <v>0.9974282299180249</v>
+      </c>
+      <c r="G25">
+        <v>0.998177534307139</v>
+      </c>
+      <c r="H25">
+        <v>1.01543964510689</v>
+      </c>
+      <c r="I25">
+        <v>1.01543964510689</v>
+      </c>
+      <c r="J25">
+        <v>0.9956074142914959</v>
+      </c>
+      <c r="K25">
+        <v>0.9956074142914959</v>
+      </c>
+      <c r="L25">
+        <v>0.998177534307139</v>
+      </c>
+      <c r="M25">
+        <v>1.006808589707014</v>
+      </c>
+      <c r="N25">
+        <v>1.006808589707014</v>
+      </c>
+      <c r="O25">
+        <v>1.005401438725747</v>
+      </c>
+      <c r="P25">
+        <v>1.003074864568508</v>
+      </c>
+      <c r="Q25">
+        <v>1.003074864568508</v>
+      </c>
+      <c r="R25">
+        <v>1.001208001999255</v>
+      </c>
+      <c r="S25">
+        <v>1.001208001999255</v>
+      </c>
+      <c r="T25">
+        <v>1.002515866158614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8683654100221746</v>
+      </c>
+      <c r="D26">
+        <v>1.069908386804345</v>
+      </c>
+      <c r="E26">
+        <v>1.037042717634341</v>
+      </c>
+      <c r="F26">
+        <v>0.9613445094087235</v>
+      </c>
+      <c r="G26">
+        <v>0.9996075141009682</v>
+      </c>
+      <c r="H26">
+        <v>1.195336538870933</v>
+      </c>
+      <c r="I26">
+        <v>1.195336538870933</v>
+      </c>
+      <c r="J26">
+        <v>0.8683654100221746</v>
+      </c>
+      <c r="K26">
+        <v>0.8683654100221746</v>
+      </c>
+      <c r="L26">
+        <v>0.9996075141009682</v>
+      </c>
+      <c r="M26">
+        <v>1.097472026485951</v>
+      </c>
+      <c r="N26">
+        <v>1.097472026485951</v>
+      </c>
+      <c r="O26">
+        <v>1.088284146592082</v>
+      </c>
+      <c r="P26">
+        <v>1.021103154331359</v>
+      </c>
+      <c r="Q26">
+        <v>1.021103154331359</v>
+      </c>
+      <c r="R26">
+        <v>0.9829187182540626</v>
+      </c>
+      <c r="S26">
+        <v>0.9829187182540626</v>
+      </c>
+      <c r="T26">
+        <v>1.021934179473581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.02939136338415</v>
+      </c>
+      <c r="D27">
+        <v>1.017725212957323</v>
+      </c>
+      <c r="E27">
+        <v>0.9269737776323889</v>
+      </c>
+      <c r="F27">
+        <v>0.9958870446910365</v>
+      </c>
+      <c r="G27">
+        <v>0.9820992528748668</v>
+      </c>
+      <c r="H27">
+        <v>0.9966820425640548</v>
+      </c>
+      <c r="I27">
+        <v>0.9966820425640548</v>
+      </c>
+      <c r="J27">
+        <v>1.02939136338415</v>
+      </c>
+      <c r="K27">
+        <v>1.02939136338415</v>
+      </c>
+      <c r="L27">
+        <v>0.9820992528748668</v>
+      </c>
+      <c r="M27">
+        <v>0.9893906477194607</v>
+      </c>
+      <c r="N27">
+        <v>0.9893906477194607</v>
+      </c>
+      <c r="O27">
+        <v>0.9988355027987482</v>
+      </c>
+      <c r="P27">
+        <v>1.00272421960769</v>
+      </c>
+      <c r="Q27">
+        <v>1.00272421960769</v>
+      </c>
+      <c r="R27">
+        <v>1.009391005551805</v>
+      </c>
+      <c r="S27">
+        <v>1.009391005551805</v>
+      </c>
+      <c r="T27">
+        <v>0.9914597823506366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9758462599633578</v>
+      </c>
+      <c r="D28">
+        <v>1.053533817349724</v>
+      </c>
+      <c r="E28">
+        <v>0.928795405540853</v>
+      </c>
+      <c r="F28">
+        <v>0.9772013667225418</v>
+      </c>
+      <c r="G28">
+        <v>0.9777590263174686</v>
+      </c>
+      <c r="H28">
+        <v>1.085062801215676</v>
+      </c>
+      <c r="I28">
+        <v>1.085062801215676</v>
+      </c>
+      <c r="J28">
+        <v>0.9758462599633578</v>
+      </c>
+      <c r="K28">
+        <v>0.9758462599633578</v>
+      </c>
+      <c r="L28">
+        <v>0.9777590263174686</v>
+      </c>
+      <c r="M28">
+        <v>1.031410913766573</v>
+      </c>
+      <c r="N28">
+        <v>1.031410913766573</v>
+      </c>
+      <c r="O28">
+        <v>1.038785214960956</v>
+      </c>
+      <c r="P28">
+        <v>1.012889362498834</v>
+      </c>
+      <c r="Q28">
+        <v>1.012889362498834</v>
+      </c>
+      <c r="R28">
+        <v>1.003628586864965</v>
+      </c>
+      <c r="S28">
+        <v>1.003628586864965</v>
+      </c>
+      <c r="T28">
+        <v>0.9996997795182705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9791491628716934</v>
+      </c>
+      <c r="D29">
+        <v>1.043723860198343</v>
+      </c>
+      <c r="E29">
+        <v>0.9432857415078679</v>
+      </c>
+      <c r="F29">
+        <v>0.9812719304062245</v>
+      </c>
+      <c r="G29">
+        <v>0.9821454990043667</v>
+      </c>
+      <c r="H29">
+        <v>1.070587620175912</v>
+      </c>
+      <c r="I29">
+        <v>1.070587620175912</v>
+      </c>
+      <c r="J29">
+        <v>0.9791491628716934</v>
+      </c>
+      <c r="K29">
+        <v>0.9791491628716934</v>
+      </c>
+      <c r="L29">
+        <v>0.9821454990043667</v>
+      </c>
+      <c r="M29">
+        <v>1.026366559590139</v>
+      </c>
+      <c r="N29">
+        <v>1.026366559590139</v>
+      </c>
+      <c r="O29">
+        <v>1.032152326459541</v>
+      </c>
+      <c r="P29">
+        <v>1.010627427350657</v>
+      </c>
+      <c r="Q29">
+        <v>1.010627427350657</v>
+      </c>
+      <c r="R29">
+        <v>1.002757861230916</v>
+      </c>
+      <c r="S29">
+        <v>1.002757861230916</v>
+      </c>
+      <c r="T29">
+        <v>1.000027302360735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9860889991267578</v>
+      </c>
+      <c r="D30">
+        <v>1.023841581234961</v>
+      </c>
+      <c r="E30">
+        <v>0.972382964692273</v>
+      </c>
+      <c r="F30">
+        <v>0.9895329856945977</v>
+      </c>
+      <c r="G30">
+        <v>0.9909502664316953</v>
+      </c>
+      <c r="H30">
+        <v>1.041117321917123</v>
+      </c>
+      <c r="I30">
+        <v>1.041117321917123</v>
+      </c>
+      <c r="J30">
+        <v>0.9860889991267578</v>
+      </c>
+      <c r="K30">
+        <v>0.9860889991267578</v>
+      </c>
+      <c r="L30">
+        <v>0.9909502664316953</v>
+      </c>
+      <c r="M30">
+        <v>1.016033794174409</v>
+      </c>
+      <c r="N30">
+        <v>1.016033794174409</v>
+      </c>
+      <c r="O30">
+        <v>1.01863638986126</v>
+      </c>
+      <c r="P30">
+        <v>1.006052195825192</v>
+      </c>
+      <c r="Q30">
+        <v>1.006052195825192</v>
+      </c>
+      <c r="R30">
+        <v>1.001061396650583</v>
+      </c>
+      <c r="S30">
+        <v>1.001061396650583</v>
+      </c>
+      <c r="T30">
+        <v>1.000652353182901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9822479716759874</v>
+      </c>
+      <c r="D31">
+        <v>1.025724456755872</v>
+      </c>
+      <c r="E31">
+        <v>0.971538546585761</v>
+      </c>
+      <c r="F31">
+        <v>0.9889998043446291</v>
+      </c>
+      <c r="G31">
+        <v>0.9917783378883279</v>
+      </c>
+      <c r="H31">
+        <v>1.042562946063585</v>
+      </c>
+      <c r="I31">
+        <v>1.042562946063585</v>
+      </c>
+      <c r="J31">
+        <v>0.9822479716759874</v>
+      </c>
+      <c r="K31">
+        <v>0.9822479716759874</v>
+      </c>
+      <c r="L31">
+        <v>0.9917783378883279</v>
+      </c>
+      <c r="M31">
+        <v>1.017170641975957</v>
+      </c>
+      <c r="N31">
+        <v>1.017170641975957</v>
+      </c>
+      <c r="O31">
+        <v>1.020021913569262</v>
+      </c>
+      <c r="P31">
+        <v>1.005529751875967</v>
+      </c>
+      <c r="Q31">
+        <v>1.005529751875967</v>
+      </c>
+      <c r="R31">
+        <v>0.999709306825972</v>
+      </c>
+      <c r="S31">
+        <v>0.999709306825972</v>
+      </c>
+      <c r="T31">
+        <v>1.000475343885694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9779762506849315</v>
+      </c>
+      <c r="D32">
+        <v>1.05968380890411</v>
+      </c>
+      <c r="E32">
+        <v>0.9148720542465755</v>
+      </c>
+      <c r="F32">
+        <v>0.974877802191781</v>
+      </c>
+      <c r="G32">
+        <v>0.9736027239726029</v>
+      </c>
+      <c r="H32">
+        <v>1.091665568356164</v>
+      </c>
+      <c r="I32">
+        <v>1.091665568356164</v>
+      </c>
+      <c r="J32">
+        <v>0.9779762506849315</v>
+      </c>
+      <c r="K32">
+        <v>0.9779762506849315</v>
+      </c>
+      <c r="L32">
+        <v>0.9736027239726029</v>
+      </c>
+      <c r="M32">
+        <v>1.032634146164384</v>
+      </c>
+      <c r="N32">
+        <v>1.032634146164384</v>
+      </c>
+      <c r="O32">
+        <v>1.041650700410959</v>
+      </c>
+      <c r="P32">
+        <v>1.014414847671233</v>
+      </c>
+      <c r="Q32">
+        <v>1.014414847671233</v>
+      </c>
+      <c r="R32">
+        <v>1.005305198424657</v>
+      </c>
+      <c r="S32">
+        <v>1.005305198424657</v>
+      </c>
+      <c r="T32">
+        <v>0.9987797013926941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.957149043157895</v>
+      </c>
+      <c r="D33">
+        <v>0.9255484452631578</v>
+      </c>
+      <c r="E33">
+        <v>1.185405826315789</v>
+      </c>
+      <c r="F33">
+        <v>1.028142140526316</v>
+      </c>
+      <c r="G33">
+        <v>1.057357415263158</v>
+      </c>
+      <c r="H33">
+        <v>0.9204354005263159</v>
+      </c>
+      <c r="I33">
+        <v>0.9204354005263159</v>
+      </c>
+      <c r="J33">
+        <v>0.957149043157895</v>
+      </c>
+      <c r="K33">
+        <v>0.957149043157895</v>
+      </c>
+      <c r="L33">
+        <v>1.057357415263158</v>
+      </c>
+      <c r="M33">
+        <v>0.9888964078947369</v>
+      </c>
+      <c r="N33">
+        <v>0.9888964078947369</v>
+      </c>
+      <c r="O33">
+        <v>0.9677804203508772</v>
+      </c>
+      <c r="P33">
+        <v>0.9783139529824562</v>
+      </c>
+      <c r="Q33">
+        <v>0.9783139529824562</v>
+      </c>
+      <c r="R33">
+        <v>0.9730227255263159</v>
+      </c>
+      <c r="S33">
+        <v>0.9730227255263159</v>
+      </c>
+      <c r="T33">
+        <v>1.012339711842105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.137981559473684</v>
+      </c>
+      <c r="D34">
+        <v>0.8365319621052631</v>
+      </c>
+      <c r="E34">
+        <v>1.127018345263158</v>
+      </c>
+      <c r="F34">
+        <v>1.077034315789474</v>
+      </c>
+      <c r="G34">
+        <v>1.051953135789473</v>
+      </c>
+      <c r="H34">
+        <v>0.6727093168421053</v>
+      </c>
+      <c r="I34">
+        <v>0.6727093168421053</v>
+      </c>
+      <c r="J34">
+        <v>1.137981559473684</v>
+      </c>
+      <c r="K34">
+        <v>1.137981559473684</v>
+      </c>
+      <c r="L34">
+        <v>1.051953135789473</v>
+      </c>
+      <c r="M34">
+        <v>0.8623312263157894</v>
+      </c>
+      <c r="N34">
+        <v>0.8623312263157894</v>
+      </c>
+      <c r="O34">
+        <v>0.8537314715789472</v>
+      </c>
+      <c r="P34">
+        <v>0.9542146707017544</v>
+      </c>
+      <c r="Q34">
+        <v>0.9542146707017544</v>
+      </c>
+      <c r="R34">
+        <v>1.000156392894737</v>
+      </c>
+      <c r="S34">
+        <v>1.000156392894737</v>
+      </c>
+      <c r="T34">
+        <v>0.9838714392105263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9341218746052575</v>
+      </c>
+      <c r="D35">
+        <v>1.09714031923799</v>
+      </c>
+      <c r="E35">
+        <v>0.891054933543435</v>
+      </c>
+      <c r="F35">
+        <v>0.9584958361526037</v>
+      </c>
+      <c r="G35">
+        <v>0.9685262745730526</v>
+      </c>
+      <c r="H35">
+        <v>1.160835942443144</v>
+      </c>
+      <c r="I35">
+        <v>1.160835942443144</v>
+      </c>
+      <c r="J35">
+        <v>0.9341218746052575</v>
+      </c>
+      <c r="K35">
+        <v>0.9341218746052575</v>
+      </c>
+      <c r="L35">
+        <v>0.9685262745730526</v>
+      </c>
+      <c r="M35">
+        <v>1.064681108508098</v>
+      </c>
+      <c r="N35">
+        <v>1.064681108508098</v>
+      </c>
+      <c r="O35">
+        <v>1.075500845418062</v>
+      </c>
+      <c r="P35">
+        <v>1.021161363873818</v>
+      </c>
+      <c r="Q35">
+        <v>1.021161363873818</v>
+      </c>
+      <c r="R35">
+        <v>0.9994014915566778</v>
+      </c>
+      <c r="S35">
+        <v>0.9994014915566778</v>
+      </c>
+      <c r="T35">
+        <v>1.001695863425914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9996239710041067</v>
+      </c>
+      <c r="D36">
+        <v>1.000024792755926</v>
+      </c>
+      <c r="E36">
+        <v>1.00037686525287</v>
+      </c>
+      <c r="F36">
+        <v>0.9999726033774504</v>
+      </c>
+      <c r="G36">
+        <v>1.000116072830066</v>
+      </c>
+      <c r="H36">
+        <v>1.000226738380277</v>
+      </c>
+      <c r="I36">
+        <v>1.000226738380277</v>
+      </c>
+      <c r="J36">
+        <v>0.9996239710041067</v>
+      </c>
+      <c r="K36">
+        <v>0.9996239710041067</v>
+      </c>
+      <c r="L36">
+        <v>1.000116072830066</v>
+      </c>
+      <c r="M36">
+        <v>1.000171405605172</v>
+      </c>
+      <c r="N36">
+        <v>1.000171405605172</v>
+      </c>
+      <c r="O36">
+        <v>1.000122534655423</v>
+      </c>
+      <c r="P36">
+        <v>0.9999889274048167</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999889274048167</v>
+      </c>
+      <c r="R36">
+        <v>0.9998976883046392</v>
+      </c>
+      <c r="S36">
+        <v>0.9998976883046392</v>
+      </c>
+      <c r="T36">
+        <v>1.000056840600116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000374380489023</v>
+      </c>
+      <c r="D37">
+        <v>1.000223038977019</v>
+      </c>
+      <c r="E37">
+        <v>0.9991436705312982</v>
+      </c>
+      <c r="F37">
+        <v>0.9999323423238272</v>
+      </c>
+      <c r="G37">
+        <v>0.999750433502683</v>
+      </c>
+      <c r="H37">
+        <v>1.000077301379048</v>
+      </c>
+      <c r="I37">
+        <v>1.000077301379048</v>
+      </c>
+      <c r="J37">
+        <v>1.000374380489023</v>
+      </c>
+      <c r="K37">
+        <v>1.000374380489023</v>
+      </c>
+      <c r="L37">
+        <v>0.999750433502683</v>
+      </c>
+      <c r="M37">
+        <v>0.9999138674408655</v>
+      </c>
+      <c r="N37">
+        <v>0.9999138674408655</v>
+      </c>
+      <c r="O37">
+        <v>1.000016924619583</v>
+      </c>
+      <c r="P37">
+        <v>1.000067371790251</v>
+      </c>
+      <c r="Q37">
+        <v>1.000067371790251</v>
+      </c>
+      <c r="R37">
+        <v>1.000144123964944</v>
+      </c>
+      <c r="S37">
+        <v>1.000144123964944</v>
+      </c>
+      <c r="T37">
+        <v>0.9999168612004831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9985957650988161</v>
+      </c>
+      <c r="D38">
+        <v>1.000880601309227</v>
+      </c>
+      <c r="E38">
+        <v>0.9999922884187287</v>
+      </c>
+      <c r="F38">
+        <v>0.9995711549839924</v>
+      </c>
+      <c r="G38">
+        <v>0.9999725501575376</v>
+      </c>
+      <c r="H38">
+        <v>1.00196809611107</v>
+      </c>
+      <c r="I38">
+        <v>1.00196809611107</v>
+      </c>
+      <c r="J38">
+        <v>0.9985957650988161</v>
+      </c>
+      <c r="K38">
+        <v>0.9985957650988161</v>
+      </c>
+      <c r="L38">
+        <v>0.9999725501575376</v>
+      </c>
+      <c r="M38">
+        <v>1.000970323134303</v>
+      </c>
+      <c r="N38">
+        <v>1.000970323134303</v>
+      </c>
+      <c r="O38">
+        <v>1.000940415859278</v>
+      </c>
+      <c r="P38">
+        <v>1.000178803789141</v>
+      </c>
+      <c r="Q38">
+        <v>1.000178803789141</v>
+      </c>
+      <c r="R38">
+        <v>0.9997830441165598</v>
+      </c>
+      <c r="S38">
+        <v>0.9997830441165598</v>
+      </c>
+      <c r="T38">
+        <v>1.000163409346562</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9950550695128915</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.002129782233088</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001711134017113</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9988963446589162</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000477120071943</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00549247065234</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00549247065234</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9950550695128915</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9950550695128915</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000477120071943</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.002984795362142</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.002984795362142</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00269979098579</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000341553412391</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000341553412391</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9990199324375164</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9990199324375164</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000626986857715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.009701369553449</v>
+      </c>
+      <c r="D40">
+        <v>0.9392584501906802</v>
+      </c>
+      <c r="E40">
+        <v>1.095249468609757</v>
+      </c>
+      <c r="F40">
+        <v>1.026440189396028</v>
+      </c>
+      <c r="G40">
+        <v>1.033328589868034</v>
+      </c>
+      <c r="H40">
+        <v>0.901195697217154</v>
+      </c>
+      <c r="I40">
+        <v>0.901195697217154</v>
+      </c>
+      <c r="J40">
+        <v>1.009701369553449</v>
+      </c>
+      <c r="K40">
+        <v>1.009701369553449</v>
+      </c>
+      <c r="L40">
+        <v>1.033328589868034</v>
+      </c>
+      <c r="M40">
+        <v>0.9672621435425941</v>
+      </c>
+      <c r="N40">
+        <v>0.9672621435425941</v>
+      </c>
+      <c r="O40">
+        <v>0.957927579091956</v>
+      </c>
+      <c r="P40">
+        <v>0.981408552212879</v>
+      </c>
+      <c r="Q40">
+        <v>0.981408552212879</v>
+      </c>
+      <c r="R40">
+        <v>0.9884817565480215</v>
+      </c>
+      <c r="S40">
+        <v>0.9884817565480215</v>
+      </c>
+      <c r="T40">
+        <v>1.000862294139184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.005079040766428</v>
+      </c>
+      <c r="D41">
+        <v>1.000528057881109</v>
+      </c>
+      <c r="E41">
+        <v>0.9929245261614623</v>
+      </c>
+      <c r="F41">
+        <v>1.000109806976942</v>
+      </c>
+      <c r="G41">
+        <v>0.9980648548412182</v>
+      </c>
+      <c r="H41">
+        <v>0.9974920357079808</v>
+      </c>
+      <c r="I41">
+        <v>0.9974920357079808</v>
+      </c>
+      <c r="J41">
+        <v>1.005079040766428</v>
+      </c>
+      <c r="K41">
+        <v>1.005079040766428</v>
+      </c>
+      <c r="L41">
+        <v>0.9980648548412182</v>
+      </c>
+      <c r="M41">
+        <v>0.9977784452745995</v>
+      </c>
+      <c r="N41">
+        <v>0.9977784452745995</v>
+      </c>
+      <c r="O41">
+        <v>0.9986949828101026</v>
+      </c>
+      <c r="P41">
+        <v>1.000211977105209</v>
+      </c>
+      <c r="Q41">
+        <v>1.000211977105209</v>
+      </c>
+      <c r="R41">
+        <v>1.001428743020514</v>
+      </c>
+      <c r="S41">
+        <v>1.001428743020514</v>
+      </c>
+      <c r="T41">
+        <v>0.9990330537225232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9619957106556782</v>
+      </c>
+      <c r="D42">
+        <v>1.011083490367736</v>
+      </c>
+      <c r="E42">
+        <v>1.022657502339932</v>
+      </c>
+      <c r="F42">
+        <v>0.9936485855683889</v>
+      </c>
+      <c r="G42">
+        <v>1.006674452817364</v>
+      </c>
+      <c r="H42">
+        <v>1.03566612211734</v>
+      </c>
+      <c r="I42">
+        <v>1.03566612211734</v>
+      </c>
+      <c r="J42">
+        <v>0.9619957106556782</v>
+      </c>
+      <c r="K42">
+        <v>0.9619957106556782</v>
+      </c>
+      <c r="L42">
+        <v>1.006674452817364</v>
+      </c>
+      <c r="M42">
+        <v>1.021170287467352</v>
+      </c>
+      <c r="N42">
+        <v>1.021170287467352</v>
+      </c>
+      <c r="O42">
+        <v>1.01780802176748</v>
+      </c>
+      <c r="P42">
+        <v>1.001445428530128</v>
+      </c>
+      <c r="Q42">
+        <v>1.001445428530128</v>
+      </c>
+      <c r="R42">
+        <v>0.9915829990615151</v>
+      </c>
+      <c r="S42">
+        <v>0.9915829990615151</v>
+      </c>
+      <c r="T42">
+        <v>1.00528764397774</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9987732674908133</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="D3">
-        <v>1.004268447418196</v>
+        <v>1.000271751224679</v>
       </c>
       <c r="E3">
-        <v>0.9988686083565453</v>
+        <v>0.9995380847524081</v>
       </c>
       <c r="F3">
-        <v>0.9987732674908133</v>
+        <v>0.9998925987339849</v>
       </c>
       <c r="G3">
-        <v>0.9962781205289108</v>
+        <v>0.9998712267286035</v>
       </c>
       <c r="H3">
-        <v>1.002751092007889</v>
+        <v>1.000364811592838</v>
       </c>
       <c r="I3">
-        <v>0.9988408124734716</v>
+        <v>1.000364811592838</v>
       </c>
       <c r="J3">
-        <v>1.004268447418196</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="K3">
-        <v>0.9987732674908133</v>
+        <v>0.9999445313772535</v>
       </c>
       <c r="L3">
-        <v>0.9988686083565453</v>
+        <v>0.9998712267286035</v>
       </c>
       <c r="M3">
-        <v>1.00156852788737</v>
+        <v>1.000118019160721</v>
       </c>
       <c r="N3">
-        <v>1.00156852788737</v>
+        <v>1.000118019160721</v>
       </c>
       <c r="O3">
-        <v>1.001962715927543</v>
+        <v>1.00016926318204</v>
       </c>
       <c r="P3">
-        <v>1.000636774421851</v>
+        <v>1.000060189899565</v>
       </c>
       <c r="Q3">
-        <v>1.000636774421851</v>
+        <v>1.000060189899565</v>
       </c>
       <c r="R3">
-        <v>1.000170897689092</v>
+        <v>1.000031275268987</v>
       </c>
       <c r="S3">
-        <v>1.000170897689092</v>
+        <v>1.000031275268987</v>
       </c>
       <c r="T3">
-        <v>0.9999633913793042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999805007349613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9977267806518191</v>
+        <v>1.009701369553449</v>
       </c>
       <c r="D4">
-        <v>1.008268183688918</v>
+        <v>0.9392584501906802</v>
       </c>
       <c r="E4">
-        <v>0.9977723031299367</v>
+        <v>1.095249468609757</v>
       </c>
       <c r="F4">
-        <v>0.9977267806518191</v>
+        <v>1.026440189396028</v>
       </c>
       <c r="G4">
-        <v>0.9927677798565065</v>
+        <v>1.033328589868034</v>
       </c>
       <c r="H4">
-        <v>1.005302426911105</v>
+        <v>0.901195697217154</v>
       </c>
       <c r="I4">
-        <v>0.9977590312372741</v>
+        <v>0.901195697217154</v>
       </c>
       <c r="J4">
-        <v>1.008268183688918</v>
+        <v>1.009701369553449</v>
       </c>
       <c r="K4">
-        <v>0.9977267806518191</v>
+        <v>1.009701369553449</v>
       </c>
       <c r="L4">
-        <v>0.9977723031299367</v>
+        <v>1.033328589868034</v>
       </c>
       <c r="M4">
-        <v>1.003020243409427</v>
+        <v>0.9672621435425941</v>
       </c>
       <c r="N4">
-        <v>1.003020243409427</v>
+        <v>0.9672621435425941</v>
       </c>
       <c r="O4">
-        <v>1.00378097124332</v>
+        <v>0.957927579091956</v>
       </c>
       <c r="P4">
-        <v>1.001255755823558</v>
+        <v>0.981408552212879</v>
       </c>
       <c r="Q4">
-        <v>1.001255755823558</v>
+        <v>0.981408552212879</v>
       </c>
       <c r="R4">
-        <v>1.000373512030623</v>
+        <v>0.9884817565480215</v>
       </c>
       <c r="S4">
-        <v>1.000373512030623</v>
+        <v>0.9884817565480215</v>
       </c>
       <c r="T4">
-        <v>0.9999327509125933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>1.000862294139184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.995402403442619</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="D5">
-        <v>1.015848640465927</v>
+        <v>1.026136808991355</v>
       </c>
       <c r="E5">
-        <v>0.995830513611814</v>
+        <v>0.9691738219596535</v>
       </c>
       <c r="F5">
-        <v>0.995402403442619</v>
+        <v>0.9886598429178652</v>
       </c>
       <c r="G5">
-        <v>0.9863076729050443</v>
+        <v>0.9902780696325637</v>
       </c>
       <c r="H5">
-        <v>1.01017804092162</v>
+        <v>1.044079757694524</v>
       </c>
       <c r="I5">
-        <v>0.9957056962449401</v>
+        <v>1.044079757694524</v>
       </c>
       <c r="J5">
-        <v>1.015848640465927</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="K5">
-        <v>0.995402403442619</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="L5">
-        <v>0.995830513611814</v>
+        <v>0.9902780696325637</v>
       </c>
       <c r="M5">
-        <v>1.005839577038871</v>
+        <v>1.017178913663544</v>
       </c>
       <c r="N5">
-        <v>1.005839577038871</v>
+        <v>1.017178913663544</v>
       </c>
       <c r="O5">
-        <v>1.007285731666454</v>
+        <v>1.020164878772814</v>
       </c>
       <c r="P5">
-        <v>1.002360519173454</v>
+        <v>1.006361793213257</v>
       </c>
       <c r="Q5">
-        <v>1.002360519173454</v>
+        <v>1.006361793213257</v>
       </c>
       <c r="R5">
-        <v>1.000620990240745</v>
+        <v>1.000953232988113</v>
       </c>
       <c r="S5">
-        <v>1.000620990240745</v>
+        <v>1.000953232988113</v>
       </c>
       <c r="T5">
-        <v>0.9998788279319942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.000509308918107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9931595304540762</v>
+        <v>0.9341218746052575</v>
       </c>
       <c r="D6">
-        <v>1.023234523643</v>
+        <v>1.09714031923799</v>
       </c>
       <c r="E6">
-        <v>0.9939179782048226</v>
+        <v>0.891054933543435</v>
       </c>
       <c r="F6">
-        <v>0.9931595304540762</v>
+        <v>0.9584958361526037</v>
       </c>
       <c r="G6">
-        <v>0.9799981172291444</v>
+        <v>0.9685262745730526</v>
       </c>
       <c r="H6">
-        <v>1.014941408110079</v>
+        <v>1.160835942443144</v>
       </c>
       <c r="I6">
-        <v>0.9936968487712337</v>
+        <v>1.160835942443144</v>
       </c>
       <c r="J6">
-        <v>1.023234523643</v>
+        <v>0.9341218746052575</v>
       </c>
       <c r="K6">
-        <v>0.9931595304540762</v>
+        <v>0.9341218746052575</v>
       </c>
       <c r="L6">
-        <v>0.9939179782048226</v>
+        <v>0.9685262745730526</v>
       </c>
       <c r="M6">
-        <v>1.008576250923911</v>
+        <v>1.064681108508098</v>
       </c>
       <c r="N6">
-        <v>1.008576250923911</v>
+        <v>1.064681108508098</v>
       </c>
       <c r="O6">
-        <v>1.010697969985967</v>
+        <v>1.075500845418062</v>
       </c>
       <c r="P6">
-        <v>1.003437344100633</v>
+        <v>1.021161363873818</v>
       </c>
       <c r="Q6">
-        <v>1.003437344100633</v>
+        <v>1.021161363873818</v>
       </c>
       <c r="R6">
-        <v>1.000867890688994</v>
+        <v>0.9994014915566778</v>
       </c>
       <c r="S6">
-        <v>1.000867890688994</v>
+        <v>0.9994014915566778</v>
       </c>
       <c r="T6">
-        <v>0.9998247344020594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.001695863425914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999251856368109</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="D7">
-        <v>1.000244826491733</v>
+        <v>1.002171297766973</v>
       </c>
       <c r="E7">
-        <v>0.9999377290703727</v>
+        <v>0.9961979012810097</v>
       </c>
       <c r="F7">
-        <v>0.9999251856368109</v>
+        <v>0.9991240828283714</v>
       </c>
       <c r="G7">
-        <v>0.999786031483576</v>
+        <v>0.9988506909246985</v>
       </c>
       <c r="H7">
-        <v>1.000157964753519</v>
+        <v>1.002944433919935</v>
       </c>
       <c r="I7">
-        <v>0.9999340724819014</v>
+        <v>1.002944433919935</v>
       </c>
       <c r="J7">
-        <v>1.000244826491733</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="K7">
-        <v>0.9999251856368109</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="L7">
-        <v>0.9999377290703727</v>
+        <v>0.9988506909246985</v>
       </c>
       <c r="M7">
-        <v>1.000091277781053</v>
+        <v>1.000897562422317</v>
       </c>
       <c r="N7">
-        <v>1.000091277781053</v>
+        <v>1.000897562422317</v>
       </c>
       <c r="O7">
-        <v>1.000113506771875</v>
+        <v>1.001322140870536</v>
       </c>
       <c r="P7">
-        <v>1.000035913732972</v>
+        <v>1.000527850091677</v>
       </c>
       <c r="Q7">
-        <v>1.000035913732972</v>
+        <v>1.000527850091677</v>
       </c>
       <c r="R7">
-        <v>1.000008231708932</v>
+        <v>1.000342993926358</v>
       </c>
       <c r="S7">
-        <v>1.000008231708932</v>
+        <v>1.000342993926358</v>
       </c>
       <c r="T7">
-        <v>0.9999976349863188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9998461386918978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999445313772536</v>
+        <v>1.000374380489023</v>
       </c>
       <c r="D8">
-        <v>1.000364811592839</v>
+        <v>1.000223038977019</v>
       </c>
       <c r="E8">
-        <v>0.9998712267286034</v>
+        <v>0.9991436705312982</v>
       </c>
       <c r="F8">
-        <v>0.9999445313772536</v>
+        <v>0.9999323423238272</v>
       </c>
       <c r="G8">
-        <v>0.9995380847524081</v>
+        <v>0.999750433502683</v>
       </c>
       <c r="H8">
-        <v>1.000271751224679</v>
+        <v>1.000077301379048</v>
       </c>
       <c r="I8">
-        <v>0.9998925987339847</v>
+        <v>1.000077301379048</v>
       </c>
       <c r="J8">
-        <v>1.000364811592839</v>
+        <v>1.000374380489023</v>
       </c>
       <c r="K8">
-        <v>0.9999445313772536</v>
+        <v>1.000374380489023</v>
       </c>
       <c r="L8">
-        <v>0.9998712267286034</v>
+        <v>0.999750433502683</v>
       </c>
       <c r="M8">
-        <v>1.000118019160721</v>
+        <v>0.9999138674408655</v>
       </c>
       <c r="N8">
-        <v>1.000118019160721</v>
+        <v>0.9999138674408655</v>
       </c>
       <c r="O8">
-        <v>1.00016926318204</v>
+        <v>1.000016924619583</v>
       </c>
       <c r="P8">
-        <v>1.000060189899565</v>
+        <v>1.000067371790251</v>
       </c>
       <c r="Q8">
-        <v>1.000060189899565</v>
+        <v>1.000067371790251</v>
       </c>
       <c r="R8">
-        <v>1.000031275268987</v>
+        <v>1.000144123964944</v>
       </c>
       <c r="S8">
-        <v>1.000031275268987</v>
+        <v>1.000144123964944</v>
       </c>
       <c r="T8">
-        <v>0.9999805007349613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999168612004831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000097673401427</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="D9">
-        <v>1.000400891685477</v>
+        <v>1.005302426911105</v>
       </c>
       <c r="E9">
-        <v>0.9997749889928897</v>
+        <v>0.9927677798565065</v>
       </c>
       <c r="F9">
-        <v>1.000097673401427</v>
+        <v>0.9977590312372741</v>
       </c>
       <c r="G9">
-        <v>0.9992498586205952</v>
+        <v>0.9977723031299367</v>
       </c>
       <c r="H9">
-        <v>1.000340774617619</v>
+        <v>1.008268183688918</v>
       </c>
       <c r="I9">
-        <v>0.9998690663500571</v>
+        <v>1.008268183688918</v>
       </c>
       <c r="J9">
-        <v>1.000400891685477</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="K9">
-        <v>1.000097673401427</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="L9">
-        <v>0.9997749889928897</v>
+        <v>0.9977723031299367</v>
       </c>
       <c r="M9">
-        <v>1.000087940339183</v>
+        <v>1.003020243409427</v>
       </c>
       <c r="N9">
-        <v>1.000087940339183</v>
+        <v>1.003020243409427</v>
       </c>
       <c r="O9">
-        <v>1.000172218431995</v>
+        <v>1.00378097124332</v>
       </c>
       <c r="P9">
-        <v>1.000091184693265</v>
+        <v>1.001255755823558</v>
       </c>
       <c r="Q9">
-        <v>1.000091184693265</v>
+        <v>1.001255755823558</v>
       </c>
       <c r="R9">
-        <v>1.000092806870305</v>
+        <v>1.000373512030623</v>
       </c>
       <c r="S9">
-        <v>1.000092806870305</v>
+        <v>1.000373512030623</v>
       </c>
       <c r="T9">
-        <v>0.9999555422780109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999327509125933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999961711074432</v>
+        <v>0.932418293130796</v>
       </c>
       <c r="D10">
-        <v>1.000989324823397</v>
+        <v>1.098685667280815</v>
       </c>
       <c r="E10">
-        <v>0.9995708396672338</v>
+        <v>0.8893561738417103</v>
       </c>
       <c r="F10">
-        <v>0.9999961711074432</v>
+        <v>0.9579760096845011</v>
       </c>
       <c r="G10">
-        <v>0.9985057115777343</v>
+        <v>0.9684935907163044</v>
       </c>
       <c r="H10">
-        <v>1.000783445170443</v>
+        <v>1.162411424369119</v>
       </c>
       <c r="I10">
-        <v>0.9996948437819032</v>
+        <v>1.162411424369119</v>
       </c>
       <c r="J10">
-        <v>1.000989324823397</v>
+        <v>0.932418293130796</v>
       </c>
       <c r="K10">
-        <v>0.9999961711074432</v>
+        <v>0.932418293130796</v>
       </c>
       <c r="L10">
-        <v>0.9995708396672338</v>
+        <v>0.9684935907163044</v>
       </c>
       <c r="M10">
-        <v>1.000280082245316</v>
+        <v>1.065452507542712</v>
       </c>
       <c r="N10">
-        <v>1.000280082245316</v>
+        <v>1.065452507542712</v>
       </c>
       <c r="O10">
-        <v>1.000447869887025</v>
+        <v>1.076530227455413</v>
       </c>
       <c r="P10">
-        <v>1.000185445199358</v>
+        <v>1.021107769405407</v>
       </c>
       <c r="Q10">
-        <v>1.000185445199358</v>
+        <v>1.021107769405406</v>
       </c>
       <c r="R10">
-        <v>1.000138126676379</v>
+        <v>0.9989354003367539</v>
       </c>
       <c r="S10">
-        <v>1.000138126676379</v>
+        <v>0.9989354003367539</v>
       </c>
       <c r="T10">
-        <v>0.9999233893546925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.001556859837208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000590482213261</v>
+        <v>1.008010005345964</v>
       </c>
       <c r="D11">
-        <v>1.001168336797182</v>
+        <v>0.9516534712227892</v>
       </c>
       <c r="E11">
-        <v>0.9991686947989944</v>
+        <v>1.07464807564818</v>
       </c>
       <c r="F11">
-        <v>1.000590482213261</v>
+        <v>1.021254790224411</v>
       </c>
       <c r="G11">
-        <v>0.9972128268631562</v>
+        <v>1.026705315571467</v>
       </c>
       <c r="H11">
-        <v>1.001123626680617</v>
+        <v>0.9197604260146534</v>
       </c>
       <c r="I11">
-        <v>0.9995832106843366</v>
+        <v>0.9197604260146534</v>
       </c>
       <c r="J11">
-        <v>1.001168336797182</v>
+        <v>1.008010005345964</v>
       </c>
       <c r="K11">
-        <v>1.000590482213261</v>
+        <v>1.008010005345964</v>
       </c>
       <c r="L11">
-        <v>0.9991686947989944</v>
+        <v>1.026705315571467</v>
       </c>
       <c r="M11">
-        <v>1.000168515798088</v>
+        <v>0.9732328707930602</v>
       </c>
       <c r="N11">
-        <v>1.000168515798088</v>
+        <v>0.9732328707930602</v>
       </c>
       <c r="O11">
-        <v>1.000486886092264</v>
+        <v>0.9660397376029698</v>
       </c>
       <c r="P11">
-        <v>1.000309171269812</v>
+        <v>0.9848252489773616</v>
       </c>
       <c r="Q11">
-        <v>1.000309171269812</v>
+        <v>0.9848252489773616</v>
       </c>
       <c r="R11">
-        <v>1.000379499005674</v>
+        <v>0.9906214380695122</v>
       </c>
       <c r="S11">
-        <v>1.000379499005674</v>
+        <v>0.9906214380695122</v>
       </c>
       <c r="T11">
-        <v>0.9998078630062577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>1.000338680671244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.007948850453734</v>
+        <v>0.9813788107894735</v>
       </c>
       <c r="D12">
-        <v>1.004768340306986</v>
+        <v>1.027521065473686</v>
       </c>
       <c r="E12">
-        <v>0.9922242618361476</v>
+        <v>0.9687598036526331</v>
       </c>
       <c r="F12">
-        <v>1.007948850453734</v>
+        <v>0.9883348814842092</v>
       </c>
       <c r="G12">
-        <v>0.9680761378232576</v>
+        <v>0.9911974629263159</v>
       </c>
       <c r="H12">
-        <v>1.010700930437461</v>
+        <v>1.044723635052632</v>
       </c>
       <c r="I12">
-        <v>0.996808684821475</v>
+        <v>1.044723635052632</v>
       </c>
       <c r="J12">
-        <v>1.004768340306986</v>
+        <v>0.9813788107894735</v>
       </c>
       <c r="K12">
-        <v>1.007948850453734</v>
+        <v>0.9813788107894735</v>
       </c>
       <c r="L12">
-        <v>0.9922242618361476</v>
+        <v>0.9911974629263159</v>
       </c>
       <c r="M12">
-        <v>0.9984963010715668</v>
+        <v>1.017960548989474</v>
       </c>
       <c r="N12">
-        <v>0.9984963010715668</v>
+        <v>1.017960548989474</v>
       </c>
       <c r="O12">
-        <v>1.002564510860198</v>
+        <v>1.021147387817545</v>
       </c>
       <c r="P12">
-        <v>1.001647150865623</v>
+        <v>1.005766636256141</v>
       </c>
       <c r="Q12">
-        <v>1.001647150865623</v>
+        <v>1.005766636256141</v>
       </c>
       <c r="R12">
-        <v>1.003222575762651</v>
+        <v>0.9996696798894739</v>
       </c>
       <c r="S12">
-        <v>1.003222575762651</v>
+        <v>0.9996696798894739</v>
       </c>
       <c r="T12">
-        <v>0.9967545342798436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.000319276563158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9956074142914958</v>
+        <v>1.007264476919498</v>
       </c>
       <c r="D13">
-        <v>1.01543964510689</v>
+        <v>0.9812199864167003</v>
       </c>
       <c r="E13">
-        <v>0.998177534307139</v>
+        <v>1.022655698552403</v>
       </c>
       <c r="F13">
-        <v>0.9956074142914958</v>
+        <v>1.008857517533845</v>
       </c>
       <c r="G13">
-        <v>1.005855236564921</v>
+        <v>1.009513092470809</v>
       </c>
       <c r="H13">
-        <v>1.002587136763213</v>
+        <v>0.9635128101396636</v>
       </c>
       <c r="I13">
-        <v>0.9974282299180249</v>
+        <v>0.9635128101396636</v>
       </c>
       <c r="J13">
-        <v>1.01543964510689</v>
+        <v>1.007264476919498</v>
       </c>
       <c r="K13">
-        <v>0.9956074142914958</v>
+        <v>1.007264476919498</v>
       </c>
       <c r="L13">
-        <v>0.998177534307139</v>
+        <v>1.009513092470809</v>
       </c>
       <c r="M13">
-        <v>1.006808589707014</v>
+        <v>0.9865129513052364</v>
       </c>
       <c r="N13">
-        <v>1.006808589707014</v>
+        <v>0.9865129513052364</v>
       </c>
       <c r="O13">
-        <v>1.005401438725747</v>
+        <v>0.9847486296757243</v>
       </c>
       <c r="P13">
-        <v>1.003074864568508</v>
+        <v>0.9934301265099904</v>
       </c>
       <c r="Q13">
-        <v>1.003074864568508</v>
+        <v>0.9934301265099904</v>
       </c>
       <c r="R13">
-        <v>1.001208001999255</v>
+        <v>0.9968887141123672</v>
       </c>
       <c r="S13">
-        <v>1.001208001999255</v>
+        <v>0.9968887141123672</v>
       </c>
       <c r="T13">
-        <v>1.002515866158614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9988372636721531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8683654100221746</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="D14">
-        <v>1.195336538870933</v>
+        <v>1.170530200000001</v>
       </c>
       <c r="E14">
-        <v>0.9996075141009682</v>
+        <v>0.8091450800000003</v>
       </c>
       <c r="F14">
-        <v>0.8683654100221746</v>
+        <v>0.9274439499999987</v>
       </c>
       <c r="G14">
-        <v>1.037042717634341</v>
+        <v>0.9459392899999988</v>
       </c>
       <c r="H14">
-        <v>1.069908386804345</v>
+        <v>1.280454000000002</v>
       </c>
       <c r="I14">
-        <v>0.9613445094087235</v>
+        <v>1.280454000000002</v>
       </c>
       <c r="J14">
-        <v>1.195336538870933</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="K14">
-        <v>0.8683654100221746</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="L14">
-        <v>0.9996075141009682</v>
+        <v>0.9459392899999988</v>
       </c>
       <c r="M14">
-        <v>1.097472026485951</v>
+        <v>1.113196645</v>
       </c>
       <c r="N14">
-        <v>1.097472026485951</v>
+        <v>1.113196645</v>
       </c>
       <c r="O14">
-        <v>1.088284146592082</v>
+        <v>1.13230783</v>
       </c>
       <c r="P14">
-        <v>1.021103154331359</v>
+        <v>1.036297856666667</v>
       </c>
       <c r="Q14">
-        <v>1.021103154331359</v>
+        <v>1.036297856666667</v>
       </c>
       <c r="R14">
-        <v>0.9829187182540626</v>
+        <v>0.9978484625000005</v>
       </c>
       <c r="S14">
-        <v>0.9829187182540626</v>
+        <v>0.9978484625000005</v>
       </c>
       <c r="T14">
-        <v>1.021934179473581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.0026688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.029391363384149</v>
+        <v>1.3679559</v>
       </c>
       <c r="D15">
-        <v>0.9966820425640548</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="E15">
-        <v>0.9820992528748668</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F15">
-        <v>1.029391363384149</v>
+        <v>1.1014624</v>
       </c>
       <c r="G15">
-        <v>0.9269737776323889</v>
+        <v>0.99179431</v>
       </c>
       <c r="H15">
-        <v>1.017725212957323</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I15">
-        <v>0.9958870446910365</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J15">
-        <v>0.9966820425640548</v>
+        <v>1.3679559</v>
       </c>
       <c r="K15">
-        <v>1.029391363384149</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>0.9820992528748668</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>0.9893906477194607</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>0.9893906477194607</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>0.9988355027987482</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>1.00272421960769</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>1.00272421960769</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>1.009391005551805</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>1.009391005551805</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9914597823506366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9996239710041067</v>
+        <v>1.0218788</v>
       </c>
       <c r="D16">
-        <v>1.000226738380277</v>
+        <v>0.55493959</v>
       </c>
       <c r="E16">
-        <v>1.000116072830066</v>
+        <v>1.7607721</v>
       </c>
       <c r="F16">
-        <v>0.9996239710041067</v>
+        <v>1.1898645</v>
       </c>
       <c r="G16">
-        <v>1.00037686525287</v>
+        <v>1.2589944</v>
       </c>
       <c r="H16">
-        <v>1.000024792755926</v>
+        <v>0.31130847</v>
       </c>
       <c r="I16">
-        <v>0.9999726033774504</v>
+        <v>0.31130847</v>
       </c>
       <c r="J16">
-        <v>1.000226738380277</v>
+        <v>1.0218788</v>
       </c>
       <c r="K16">
-        <v>0.9996239710041067</v>
+        <v>1.0218788</v>
       </c>
       <c r="L16">
-        <v>1.000116072830066</v>
+        <v>1.2589944</v>
       </c>
       <c r="M16">
-        <v>1.000171405605172</v>
+        <v>0.785151435</v>
       </c>
       <c r="N16">
-        <v>1.000171405605172</v>
+        <v>0.785151435</v>
       </c>
       <c r="O16">
-        <v>1.000122534655423</v>
+        <v>0.7084141533333334</v>
       </c>
       <c r="P16">
-        <v>0.9999889274048166</v>
+        <v>0.8640605566666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999889274048167</v>
+        <v>0.8640605566666667</v>
       </c>
       <c r="R16">
-        <v>0.9998976883046392</v>
+        <v>0.9035151175</v>
       </c>
       <c r="S16">
-        <v>0.9998976883046392</v>
+        <v>0.9035151175</v>
       </c>
       <c r="T16">
-        <v>1.000056840600116</v>
+        <v>1.016292976666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000374380489023</v>
+        <v>1.1681166</v>
       </c>
       <c r="D17">
-        <v>1.000077301379048</v>
+        <v>0.80395043</v>
       </c>
       <c r="E17">
-        <v>0.999750433502683</v>
+        <v>1.1471085</v>
       </c>
       <c r="F17">
-        <v>1.000374380489023</v>
+        <v>1.0928667</v>
       </c>
       <c r="G17">
-        <v>0.9991436705312982</v>
+        <v>1.0618997</v>
       </c>
       <c r="H17">
-        <v>1.000223038977019</v>
+        <v>0.60517666</v>
       </c>
       <c r="I17">
-        <v>0.9999323423238272</v>
+        <v>0.60517666</v>
       </c>
       <c r="J17">
-        <v>1.000077301379048</v>
+        <v>1.1681166</v>
       </c>
       <c r="K17">
-        <v>1.000374380489023</v>
+        <v>1.1681166</v>
       </c>
       <c r="L17">
-        <v>0.999750433502683</v>
+        <v>1.0618997</v>
       </c>
       <c r="M17">
-        <v>0.9999138674408656</v>
+        <v>0.8335381799999999</v>
       </c>
       <c r="N17">
-        <v>0.9999138674408656</v>
+        <v>0.8335381799999999</v>
       </c>
       <c r="O17">
-        <v>1.000016924619583</v>
+        <v>0.8236755966666666</v>
       </c>
       <c r="P17">
-        <v>1.000067371790251</v>
+        <v>0.9450643199999998</v>
       </c>
       <c r="Q17">
-        <v>1.000067371790251</v>
+        <v>0.9450643199999998</v>
       </c>
       <c r="R17">
-        <v>1.000144123964944</v>
+        <v>1.00082739</v>
       </c>
       <c r="S17">
-        <v>1.000144123964944</v>
+        <v>1.00082739</v>
       </c>
       <c r="T17">
-        <v>0.9999168612004831</v>
+        <v>0.9798530983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985957650988162</v>
+        <v>0.9779762506849315</v>
       </c>
       <c r="D18">
-        <v>1.001968096111069</v>
+        <v>1.05968380890411</v>
       </c>
       <c r="E18">
-        <v>0.9999725501575376</v>
+        <v>0.9148720542465755</v>
       </c>
       <c r="F18">
-        <v>0.9985957650988162</v>
+        <v>0.974877802191781</v>
       </c>
       <c r="G18">
-        <v>0.9999922884187286</v>
+        <v>0.9736027239726029</v>
       </c>
       <c r="H18">
-        <v>1.000880601309227</v>
+        <v>1.091665568356164</v>
       </c>
       <c r="I18">
-        <v>0.9995711549839924</v>
+        <v>1.091665568356164</v>
       </c>
       <c r="J18">
-        <v>1.001968096111069</v>
+        <v>0.9779762506849315</v>
       </c>
       <c r="K18">
-        <v>0.9985957650988162</v>
+        <v>0.9779762506849315</v>
       </c>
       <c r="L18">
-        <v>0.9999725501575376</v>
+        <v>0.9736027239726029</v>
       </c>
       <c r="M18">
-        <v>1.000970323134303</v>
+        <v>1.032634146164384</v>
       </c>
       <c r="N18">
-        <v>1.000970323134303</v>
+        <v>1.032634146164384</v>
       </c>
       <c r="O18">
-        <v>1.000940415859278</v>
+        <v>1.041650700410959</v>
       </c>
       <c r="P18">
-        <v>1.000178803789141</v>
+        <v>1.014414847671233</v>
       </c>
       <c r="Q18">
-        <v>1.000178803789141</v>
+        <v>1.014414847671233</v>
       </c>
       <c r="R18">
-        <v>0.9997830441165598</v>
+        <v>1.005305198424657</v>
       </c>
       <c r="S18">
-        <v>0.9997830441165598</v>
+        <v>1.005305198424657</v>
       </c>
       <c r="T18">
-        <v>1.000163409346562</v>
+        <v>0.9987797013926941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9950550695128915</v>
+        <v>0.957149043157895</v>
       </c>
       <c r="D19">
-        <v>1.00549247065234</v>
+        <v>0.9255484452631578</v>
       </c>
       <c r="E19">
-        <v>1.000477120071943</v>
+        <v>1.185405826315789</v>
       </c>
       <c r="F19">
-        <v>0.9950550695128915</v>
+        <v>1.028142140526316</v>
       </c>
       <c r="G19">
-        <v>1.001711134017113</v>
+        <v>1.057357415263158</v>
       </c>
       <c r="H19">
-        <v>1.002129782233088</v>
+        <v>0.9204354005263159</v>
       </c>
       <c r="I19">
-        <v>0.9988963446589161</v>
+        <v>0.9204354005263159</v>
       </c>
       <c r="J19">
-        <v>1.00549247065234</v>
+        <v>0.957149043157895</v>
       </c>
       <c r="K19">
-        <v>0.9950550695128915</v>
+        <v>0.957149043157895</v>
       </c>
       <c r="L19">
-        <v>1.000477120071943</v>
+        <v>1.057357415263158</v>
       </c>
       <c r="M19">
-        <v>1.002984795362142</v>
+        <v>0.9888964078947369</v>
       </c>
       <c r="N19">
-        <v>1.002984795362142</v>
+        <v>0.9888964078947369</v>
       </c>
       <c r="O19">
-        <v>1.00269979098579</v>
+        <v>0.9677804203508772</v>
       </c>
       <c r="P19">
-        <v>1.000341553412391</v>
+        <v>0.9783139529824562</v>
       </c>
       <c r="Q19">
-        <v>1.000341553412391</v>
+        <v>0.9783139529824562</v>
       </c>
       <c r="R19">
-        <v>0.9990199324375164</v>
+        <v>0.9730227255263159</v>
       </c>
       <c r="S19">
-        <v>0.9990199324375164</v>
+        <v>0.9730227255263159</v>
       </c>
       <c r="T19">
-        <v>1.000626986857715</v>
+        <v>1.012339711842105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.137981559473684</v>
+      </c>
+      <c r="D20">
+        <v>0.8365319621052631</v>
+      </c>
+      <c r="E20">
+        <v>1.127018345263158</v>
+      </c>
+      <c r="F20">
+        <v>1.077034315789474</v>
+      </c>
+      <c r="G20">
+        <v>1.051953135789473</v>
+      </c>
+      <c r="H20">
+        <v>0.6727093168421053</v>
+      </c>
+      <c r="I20">
+        <v>0.6727093168421053</v>
+      </c>
+      <c r="J20">
+        <v>1.137981559473684</v>
+      </c>
+      <c r="K20">
+        <v>1.137981559473684</v>
+      </c>
+      <c r="L20">
+        <v>1.051953135789473</v>
+      </c>
+      <c r="M20">
+        <v>0.8623312263157894</v>
+      </c>
+      <c r="N20">
+        <v>0.8623312263157894</v>
+      </c>
+      <c r="O20">
+        <v>0.8537314715789472</v>
+      </c>
+      <c r="P20">
+        <v>0.9542146707017544</v>
+      </c>
+      <c r="Q20">
+        <v>0.9542146707017544</v>
+      </c>
+      <c r="R20">
+        <v>1.000156392894737</v>
+      </c>
+      <c r="S20">
+        <v>1.000156392894737</v>
+      </c>
+      <c r="T20">
+        <v>0.9838714392105263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8683654100221746</v>
+      </c>
+      <c r="D21">
+        <v>1.069908386804345</v>
+      </c>
+      <c r="E21">
+        <v>1.037042717634341</v>
+      </c>
+      <c r="F21">
+        <v>0.9613445094087235</v>
+      </c>
+      <c r="G21">
+        <v>0.9996075141009682</v>
+      </c>
+      <c r="H21">
+        <v>1.195336538870933</v>
+      </c>
+      <c r="I21">
+        <v>1.195336538870933</v>
+      </c>
+      <c r="J21">
+        <v>0.8683654100221746</v>
+      </c>
+      <c r="K21">
+        <v>0.8683654100221746</v>
+      </c>
+      <c r="L21">
+        <v>0.9996075141009682</v>
+      </c>
+      <c r="M21">
+        <v>1.097472026485951</v>
+      </c>
+      <c r="N21">
+        <v>1.097472026485951</v>
+      </c>
+      <c r="O21">
+        <v>1.088284146592082</v>
+      </c>
+      <c r="P21">
+        <v>1.021103154331359</v>
+      </c>
+      <c r="Q21">
+        <v>1.021103154331359</v>
+      </c>
+      <c r="R21">
+        <v>0.9829187182540626</v>
+      </c>
+      <c r="S21">
+        <v>0.9829187182540626</v>
+      </c>
+      <c r="T21">
+        <v>1.021934179473581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.02939136338415</v>
+      </c>
+      <c r="D22">
+        <v>1.017725212957323</v>
+      </c>
+      <c r="E22">
+        <v>0.9269737776323889</v>
+      </c>
+      <c r="F22">
+        <v>0.9958870446910365</v>
+      </c>
+      <c r="G22">
+        <v>0.9820992528748668</v>
+      </c>
+      <c r="H22">
+        <v>0.9966820425640548</v>
+      </c>
+      <c r="I22">
+        <v>0.9966820425640548</v>
+      </c>
+      <c r="J22">
+        <v>1.02939136338415</v>
+      </c>
+      <c r="K22">
+        <v>1.02939136338415</v>
+      </c>
+      <c r="L22">
+        <v>0.9820992528748668</v>
+      </c>
+      <c r="M22">
+        <v>0.9893906477194607</v>
+      </c>
+      <c r="N22">
+        <v>0.9893906477194607</v>
+      </c>
+      <c r="O22">
+        <v>0.9988355027987482</v>
+      </c>
+      <c r="P22">
+        <v>1.00272421960769</v>
+      </c>
+      <c r="Q22">
+        <v>1.00272421960769</v>
+      </c>
+      <c r="R22">
+        <v>1.009391005551805</v>
+      </c>
+      <c r="S22">
+        <v>1.009391005551805</v>
+      </c>
+      <c r="T22">
+        <v>0.9914597823506366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.007948850453734</v>
+      </c>
+      <c r="D23">
+        <v>1.010700930437461</v>
+      </c>
+      <c r="E23">
+        <v>0.9680761378232576</v>
+      </c>
+      <c r="F23">
+        <v>0.996808684821475</v>
+      </c>
+      <c r="G23">
+        <v>0.9922242618361476</v>
+      </c>
+      <c r="H23">
+        <v>1.004768340306986</v>
+      </c>
+      <c r="I23">
+        <v>1.004768340306986</v>
+      </c>
+      <c r="J23">
+        <v>1.007948850453734</v>
+      </c>
+      <c r="K23">
+        <v>1.007948850453734</v>
+      </c>
+      <c r="L23">
+        <v>0.9922242618361476</v>
+      </c>
+      <c r="M23">
+        <v>0.9984963010715668</v>
+      </c>
+      <c r="N23">
+        <v>0.9984963010715668</v>
+      </c>
+      <c r="O23">
+        <v>1.002564510860198</v>
+      </c>
+      <c r="P23">
+        <v>1.001647150865623</v>
+      </c>
+      <c r="Q23">
+        <v>1.001647150865623</v>
+      </c>
+      <c r="R23">
+        <v>1.003222575762651</v>
+      </c>
+      <c r="S23">
+        <v>1.003222575762651</v>
+      </c>
+      <c r="T23">
+        <v>0.9967545342798436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9956074142914959</v>
+      </c>
+      <c r="D24">
+        <v>1.002587136763213</v>
+      </c>
+      <c r="E24">
+        <v>1.005855236564921</v>
+      </c>
+      <c r="F24">
+        <v>0.9974282299180249</v>
+      </c>
+      <c r="G24">
+        <v>0.998177534307139</v>
+      </c>
+      <c r="H24">
+        <v>1.01543964510689</v>
+      </c>
+      <c r="I24">
+        <v>1.01543964510689</v>
+      </c>
+      <c r="J24">
+        <v>0.9956074142914959</v>
+      </c>
+      <c r="K24">
+        <v>0.9956074142914959</v>
+      </c>
+      <c r="L24">
+        <v>0.998177534307139</v>
+      </c>
+      <c r="M24">
+        <v>1.006808589707014</v>
+      </c>
+      <c r="N24">
+        <v>1.006808589707014</v>
+      </c>
+      <c r="O24">
+        <v>1.005401438725747</v>
+      </c>
+      <c r="P24">
+        <v>1.003074864568508</v>
+      </c>
+      <c r="Q24">
+        <v>1.003074864568508</v>
+      </c>
+      <c r="R24">
+        <v>1.001208001999255</v>
+      </c>
+      <c r="S24">
+        <v>1.001208001999255</v>
+      </c>
+      <c r="T24">
+        <v>1.002515866158614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.17824657140435</v>
+      </c>
+      <c r="D25">
+        <v>0.819984071284102</v>
+      </c>
+      <c r="E25">
+        <v>1.113085200036714</v>
+      </c>
+      <c r="F25">
+        <v>1.085450445647988</v>
+      </c>
+      <c r="G25">
+        <v>1.047262751355396</v>
+      </c>
+      <c r="H25">
+        <v>0.6300009916270652</v>
+      </c>
+      <c r="I25">
+        <v>0.6300009916270652</v>
+      </c>
+      <c r="J25">
+        <v>1.17824657140435</v>
+      </c>
+      <c r="K25">
+        <v>1.17824657140435</v>
+      </c>
+      <c r="L25">
+        <v>1.047262751355396</v>
+      </c>
+      <c r="M25">
+        <v>0.8386318714912304</v>
+      </c>
+      <c r="N25">
+        <v>0.8386318714912304</v>
+      </c>
+      <c r="O25">
+        <v>0.8324159380888543</v>
+      </c>
+      <c r="P25">
+        <v>0.9518367714622705</v>
+      </c>
+      <c r="Q25">
+        <v>0.9518367714622705</v>
+      </c>
+      <c r="R25">
+        <v>1.00843922144779</v>
+      </c>
+      <c r="S25">
+        <v>1.00843922144779</v>
+      </c>
+      <c r="T25">
+        <v>0.979005005225936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9772267175201372</v>
+      </c>
+      <c r="D26">
+        <v>0.9556357523899386</v>
+      </c>
+      <c r="E26">
+        <v>1.095954236214411</v>
+      </c>
+      <c r="F26">
+        <v>1.019715675088648</v>
+      </c>
+      <c r="G26">
+        <v>1.037200843262861</v>
+      </c>
+      <c r="H26">
+        <v>0.9289915199585504</v>
+      </c>
+      <c r="I26">
+        <v>0.9289915199585504</v>
+      </c>
+      <c r="J26">
+        <v>0.9772267175201372</v>
+      </c>
+      <c r="K26">
+        <v>0.9772267175201372</v>
+      </c>
+      <c r="L26">
+        <v>1.037200843262861</v>
+      </c>
+      <c r="M26">
+        <v>0.9830961816107058</v>
+      </c>
+      <c r="N26">
+        <v>0.9830961816107058</v>
+      </c>
+      <c r="O26">
+        <v>0.9739427052037835</v>
+      </c>
+      <c r="P26">
+        <v>0.9811396935805163</v>
+      </c>
+      <c r="Q26">
+        <v>0.9811396935805163</v>
+      </c>
+      <c r="R26">
+        <v>0.9801614495654216</v>
+      </c>
+      <c r="S26">
+        <v>0.9801614495654216</v>
+      </c>
+      <c r="T26">
+        <v>1.002454124072425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.003742965697502</v>
+      </c>
+      <c r="D27">
+        <v>1.008426410030241</v>
+      </c>
+      <c r="E27">
+        <v>0.9910713465288216</v>
+      </c>
+      <c r="F27">
+        <v>0.99401654857281</v>
+      </c>
+      <c r="G27">
+        <v>0.9900139067854545</v>
+      </c>
+      <c r="H27">
+        <v>1.031917744130109</v>
+      </c>
+      <c r="I27">
+        <v>1.031917744130109</v>
+      </c>
+      <c r="J27">
+        <v>1.003742965697502</v>
+      </c>
+      <c r="K27">
+        <v>1.003742965697502</v>
+      </c>
+      <c r="L27">
+        <v>0.9900139067854545</v>
+      </c>
+      <c r="M27">
+        <v>1.010965825457782</v>
+      </c>
+      <c r="N27">
+        <v>1.010965825457782</v>
+      </c>
+      <c r="O27">
+        <v>1.010119353648602</v>
+      </c>
+      <c r="P27">
+        <v>1.008558205537689</v>
+      </c>
+      <c r="Q27">
+        <v>1.008558205537688</v>
+      </c>
+      <c r="R27">
+        <v>1.007354395577642</v>
+      </c>
+      <c r="S27">
+        <v>1.007354395577642</v>
+      </c>
+      <c r="T27">
+        <v>1.003198153624156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.013525451360975</v>
+      </c>
+      <c r="D28">
+        <v>0.970782455486579</v>
+      </c>
+      <c r="E28">
+        <v>1.034568735434026</v>
+      </c>
+      <c r="F28">
+        <v>1.013440259137414</v>
+      </c>
+      <c r="G28">
+        <v>1.013405205744179</v>
+      </c>
+      <c r="H28">
+        <v>0.9455184314157964</v>
+      </c>
+      <c r="I28">
+        <v>0.9455184314157964</v>
+      </c>
+      <c r="J28">
+        <v>1.013525451360975</v>
+      </c>
+      <c r="K28">
+        <v>1.013525451360975</v>
+      </c>
+      <c r="L28">
+        <v>1.013405205744179</v>
+      </c>
+      <c r="M28">
+        <v>0.9794618185799875</v>
+      </c>
+      <c r="N28">
+        <v>0.9794618185799875</v>
+      </c>
+      <c r="O28">
+        <v>0.9765686975488513</v>
+      </c>
+      <c r="P28">
+        <v>0.9908163628403166</v>
+      </c>
+      <c r="Q28">
+        <v>0.9908163628403166</v>
+      </c>
+      <c r="R28">
+        <v>0.9964936349704812</v>
+      </c>
+      <c r="S28">
+        <v>0.9964936349704812</v>
+      </c>
+      <c r="T28">
+        <v>0.9985400897631614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.053859412253848</v>
+      </c>
+      <c r="D29">
+        <v>0.9404933276330857</v>
+      </c>
+      <c r="E29">
+        <v>1.044733036529922</v>
+      </c>
+      <c r="F29">
+        <v>1.027599345084282</v>
+      </c>
+      <c r="G29">
+        <v>1.016792756679217</v>
+      </c>
+      <c r="H29">
+        <v>0.8835758577888282</v>
+      </c>
+      <c r="I29">
+        <v>0.8835758577888282</v>
+      </c>
+      <c r="J29">
+        <v>1.053859412253848</v>
+      </c>
+      <c r="K29">
+        <v>1.053859412253848</v>
+      </c>
+      <c r="L29">
+        <v>1.016792756679217</v>
+      </c>
+      <c r="M29">
+        <v>0.9501843072340227</v>
+      </c>
+      <c r="N29">
+        <v>0.9501843072340227</v>
+      </c>
+      <c r="O29">
+        <v>0.9469539807003771</v>
+      </c>
+      <c r="P29">
+        <v>0.9847426755739646</v>
+      </c>
+      <c r="Q29">
+        <v>0.9847426755739646</v>
+      </c>
+      <c r="R29">
+        <v>1.002021859743935</v>
+      </c>
+      <c r="S29">
+        <v>1.002021859743935</v>
+      </c>
+      <c r="T29">
+        <v>0.994508955994864</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009701369553449</v>
+        <v>0.9839055435100029</v>
       </c>
       <c r="D4">
-        <v>0.9392584501906802</v>
+        <v>1.02510485996509</v>
       </c>
       <c r="E4">
-        <v>1.095249468609757</v>
+        <v>0.9725526753052789</v>
       </c>
       <c r="F4">
-        <v>1.026440189396028</v>
+        <v>0.9889098104137445</v>
       </c>
       <c r="G4">
-        <v>1.033328589868034</v>
+        <v>0.9909691795165132</v>
       </c>
       <c r="H4">
-        <v>0.901195697217154</v>
+        <v>1.044050955337974</v>
       </c>
       <c r="I4">
-        <v>0.901195697217154</v>
+        <v>1.044050955337974</v>
       </c>
       <c r="J4">
-        <v>1.009701369553449</v>
+        <v>0.9839055435100029</v>
       </c>
       <c r="K4">
-        <v>1.009701369553449</v>
+        <v>0.9839055435100029</v>
       </c>
       <c r="L4">
-        <v>1.033328589868034</v>
+        <v>0.9909691795165132</v>
       </c>
       <c r="M4">
-        <v>0.9672621435425941</v>
+        <v>1.017510067427244</v>
       </c>
       <c r="N4">
-        <v>0.9672621435425941</v>
+        <v>1.017510067427244</v>
       </c>
       <c r="O4">
-        <v>0.957927579091956</v>
+        <v>1.020041664939859</v>
       </c>
       <c r="P4">
-        <v>0.981408552212879</v>
+        <v>1.00630855945483</v>
       </c>
       <c r="Q4">
-        <v>0.981408552212879</v>
+        <v>1.00630855945483</v>
       </c>
       <c r="R4">
-        <v>0.9884817565480215</v>
+        <v>1.000707805468623</v>
       </c>
       <c r="S4">
-        <v>0.9884817565480215</v>
+        <v>1.000707805468623</v>
       </c>
       <c r="T4">
-        <v>1.000862294139184</v>
+        <v>1.0009155040081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9847275523126825</v>
+        <v>1.152097815865245</v>
       </c>
       <c r="D5">
-        <v>1.026136808991355</v>
+        <v>0.8109149600476444</v>
       </c>
       <c r="E5">
-        <v>0.9691738219596535</v>
+        <v>1.157116229625559</v>
       </c>
       <c r="F5">
-        <v>0.9886598429178652</v>
+        <v>1.08835711762352</v>
       </c>
       <c r="G5">
-        <v>0.9902780696325637</v>
+        <v>1.062126366375408</v>
       </c>
       <c r="H5">
-        <v>1.044079757694524</v>
+        <v>0.6281542297798428</v>
       </c>
       <c r="I5">
-        <v>1.044079757694524</v>
+        <v>0.6281542297798428</v>
       </c>
       <c r="J5">
-        <v>0.9847275523126825</v>
+        <v>1.152097815865245</v>
       </c>
       <c r="K5">
-        <v>0.9847275523126825</v>
+        <v>1.152097815865245</v>
       </c>
       <c r="L5">
-        <v>0.9902780696325637</v>
+        <v>1.062126366375408</v>
       </c>
       <c r="M5">
-        <v>1.017178913663544</v>
+        <v>0.8451402980776255</v>
       </c>
       <c r="N5">
-        <v>1.017178913663544</v>
+        <v>0.8451402980776255</v>
       </c>
       <c r="O5">
-        <v>1.020164878772814</v>
+        <v>0.8337318520676318</v>
       </c>
       <c r="P5">
-        <v>1.006361793213257</v>
+        <v>0.9474594706734986</v>
       </c>
       <c r="Q5">
-        <v>1.006361793213257</v>
+        <v>0.9474594706734986</v>
       </c>
       <c r="R5">
-        <v>1.000953232988113</v>
+        <v>0.998619056971435</v>
       </c>
       <c r="S5">
-        <v>1.000953232988113</v>
+        <v>0.998619056971435</v>
       </c>
       <c r="T5">
-        <v>1.000509308918107</v>
+        <v>0.9831277865528699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9341218746052575</v>
+        <v>1.009701369553449</v>
       </c>
       <c r="D6">
-        <v>1.09714031923799</v>
+        <v>0.9392584501906802</v>
       </c>
       <c r="E6">
-        <v>0.891054933543435</v>
+        <v>1.095249468609757</v>
       </c>
       <c r="F6">
-        <v>0.9584958361526037</v>
+        <v>1.026440189396028</v>
       </c>
       <c r="G6">
-        <v>0.9685262745730526</v>
+        <v>1.033328589868034</v>
       </c>
       <c r="H6">
-        <v>1.160835942443144</v>
+        <v>0.901195697217154</v>
       </c>
       <c r="I6">
-        <v>1.160835942443144</v>
+        <v>0.901195697217154</v>
       </c>
       <c r="J6">
-        <v>0.9341218746052575</v>
+        <v>1.009701369553449</v>
       </c>
       <c r="K6">
-        <v>0.9341218746052575</v>
+        <v>1.009701369553449</v>
       </c>
       <c r="L6">
-        <v>0.9685262745730526</v>
+        <v>1.033328589868034</v>
       </c>
       <c r="M6">
-        <v>1.064681108508098</v>
+        <v>0.9672621435425941</v>
       </c>
       <c r="N6">
-        <v>1.064681108508098</v>
+        <v>0.9672621435425941</v>
       </c>
       <c r="O6">
-        <v>1.075500845418062</v>
+        <v>0.957927579091956</v>
       </c>
       <c r="P6">
-        <v>1.021161363873818</v>
+        <v>0.981408552212879</v>
       </c>
       <c r="Q6">
-        <v>1.021161363873818</v>
+        <v>0.981408552212879</v>
       </c>
       <c r="R6">
-        <v>0.9994014915566778</v>
+        <v>0.9884817565480215</v>
       </c>
       <c r="S6">
-        <v>0.9994014915566778</v>
+        <v>0.9884817565480215</v>
       </c>
       <c r="T6">
-        <v>1.001695863425914</v>
+        <v>1.000862294139184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997884254303988</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="D7">
-        <v>1.002171297766973</v>
+        <v>1.026136808991355</v>
       </c>
       <c r="E7">
-        <v>0.9961979012810097</v>
+        <v>0.9691738219596535</v>
       </c>
       <c r="F7">
-        <v>0.9991240828283714</v>
+        <v>0.9886598429178652</v>
       </c>
       <c r="G7">
-        <v>0.9988506909246985</v>
+        <v>0.9902780696325637</v>
       </c>
       <c r="H7">
-        <v>1.002944433919935</v>
+        <v>1.044079757694524</v>
       </c>
       <c r="I7">
-        <v>1.002944433919935</v>
+        <v>1.044079757694524</v>
       </c>
       <c r="J7">
-        <v>0.9997884254303988</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="K7">
-        <v>0.9997884254303988</v>
+        <v>0.9847275523126825</v>
       </c>
       <c r="L7">
-        <v>0.9988506909246985</v>
+        <v>0.9902780696325637</v>
       </c>
       <c r="M7">
-        <v>1.000897562422317</v>
+        <v>1.017178913663544</v>
       </c>
       <c r="N7">
-        <v>1.000897562422317</v>
+        <v>1.017178913663544</v>
       </c>
       <c r="O7">
-        <v>1.001322140870536</v>
+        <v>1.020164878772814</v>
       </c>
       <c r="P7">
-        <v>1.000527850091677</v>
+        <v>1.006361793213257</v>
       </c>
       <c r="Q7">
-        <v>1.000527850091677</v>
+        <v>1.006361793213257</v>
       </c>
       <c r="R7">
-        <v>1.000342993926358</v>
+        <v>1.000953232988113</v>
       </c>
       <c r="S7">
-        <v>1.000342993926358</v>
+        <v>1.000953232988113</v>
       </c>
       <c r="T7">
-        <v>0.9998461386918978</v>
+        <v>1.000509308918107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000374380489023</v>
+        <v>0.9341218746052575</v>
       </c>
       <c r="D8">
-        <v>1.000223038977019</v>
+        <v>1.09714031923799</v>
       </c>
       <c r="E8">
-        <v>0.9991436705312982</v>
+        <v>0.891054933543435</v>
       </c>
       <c r="F8">
-        <v>0.9999323423238272</v>
+        <v>0.9584958361526037</v>
       </c>
       <c r="G8">
-        <v>0.999750433502683</v>
+        <v>0.9685262745730526</v>
       </c>
       <c r="H8">
-        <v>1.000077301379048</v>
+        <v>1.160835942443144</v>
       </c>
       <c r="I8">
-        <v>1.000077301379048</v>
+        <v>1.160835942443144</v>
       </c>
       <c r="J8">
-        <v>1.000374380489023</v>
+        <v>0.9341218746052575</v>
       </c>
       <c r="K8">
-        <v>1.000374380489023</v>
+        <v>0.9341218746052575</v>
       </c>
       <c r="L8">
-        <v>0.999750433502683</v>
+        <v>0.9685262745730526</v>
       </c>
       <c r="M8">
-        <v>0.9999138674408655</v>
+        <v>1.064681108508098</v>
       </c>
       <c r="N8">
-        <v>0.9999138674408655</v>
+        <v>1.064681108508098</v>
       </c>
       <c r="O8">
-        <v>1.000016924619583</v>
+        <v>1.075500845418062</v>
       </c>
       <c r="P8">
-        <v>1.000067371790251</v>
+        <v>1.021161363873818</v>
       </c>
       <c r="Q8">
-        <v>1.000067371790251</v>
+        <v>1.021161363873818</v>
       </c>
       <c r="R8">
-        <v>1.000144123964944</v>
+        <v>0.9994014915566778</v>
       </c>
       <c r="S8">
-        <v>1.000144123964944</v>
+        <v>0.9994014915566778</v>
       </c>
       <c r="T8">
-        <v>0.9999168612004831</v>
+        <v>1.001695863425914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9977267806518191</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="D9">
-        <v>1.005302426911105</v>
+        <v>1.002171297766973</v>
       </c>
       <c r="E9">
-        <v>0.9927677798565065</v>
+        <v>0.9961979012810097</v>
       </c>
       <c r="F9">
-        <v>0.9977590312372741</v>
+        <v>0.9991240828283714</v>
       </c>
       <c r="G9">
-        <v>0.9977723031299367</v>
+        <v>0.9988506909246985</v>
       </c>
       <c r="H9">
-        <v>1.008268183688918</v>
+        <v>1.002944433919935</v>
       </c>
       <c r="I9">
-        <v>1.008268183688918</v>
+        <v>1.002944433919935</v>
       </c>
       <c r="J9">
-        <v>0.9977267806518191</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="K9">
-        <v>0.9977267806518191</v>
+        <v>0.9997884254303988</v>
       </c>
       <c r="L9">
-        <v>0.9977723031299367</v>
+        <v>0.9988506909246985</v>
       </c>
       <c r="M9">
-        <v>1.003020243409427</v>
+        <v>1.000897562422317</v>
       </c>
       <c r="N9">
-        <v>1.003020243409427</v>
+        <v>1.000897562422317</v>
       </c>
       <c r="O9">
-        <v>1.00378097124332</v>
+        <v>1.001322140870536</v>
       </c>
       <c r="P9">
-        <v>1.001255755823558</v>
+        <v>1.000527850091677</v>
       </c>
       <c r="Q9">
-        <v>1.001255755823558</v>
+        <v>1.000527850091677</v>
       </c>
       <c r="R9">
-        <v>1.000373512030623</v>
+        <v>1.000342993926358</v>
       </c>
       <c r="S9">
-        <v>1.000373512030623</v>
+        <v>1.000342993926358</v>
       </c>
       <c r="T9">
-        <v>0.9999327509125933</v>
+        <v>0.9998461386918978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.932418293130796</v>
+        <v>1.000374380489023</v>
       </c>
       <c r="D10">
-        <v>1.098685667280815</v>
+        <v>1.000223038977019</v>
       </c>
       <c r="E10">
-        <v>0.8893561738417103</v>
+        <v>0.9991436705312982</v>
       </c>
       <c r="F10">
-        <v>0.9579760096845011</v>
+        <v>0.9999323423238272</v>
       </c>
       <c r="G10">
-        <v>0.9684935907163044</v>
+        <v>0.999750433502683</v>
       </c>
       <c r="H10">
-        <v>1.162411424369119</v>
+        <v>1.000077301379048</v>
       </c>
       <c r="I10">
-        <v>1.162411424369119</v>
+        <v>1.000077301379048</v>
       </c>
       <c r="J10">
-        <v>0.932418293130796</v>
+        <v>1.000374380489023</v>
       </c>
       <c r="K10">
-        <v>0.932418293130796</v>
+        <v>1.000374380489023</v>
       </c>
       <c r="L10">
-        <v>0.9684935907163044</v>
+        <v>0.999750433502683</v>
       </c>
       <c r="M10">
-        <v>1.065452507542712</v>
+        <v>0.9999138674408655</v>
       </c>
       <c r="N10">
-        <v>1.065452507542712</v>
+        <v>0.9999138674408655</v>
       </c>
       <c r="O10">
-        <v>1.076530227455413</v>
+        <v>1.000016924619583</v>
       </c>
       <c r="P10">
-        <v>1.021107769405407</v>
+        <v>1.000067371790251</v>
       </c>
       <c r="Q10">
-        <v>1.021107769405406</v>
+        <v>1.000067371790251</v>
       </c>
       <c r="R10">
-        <v>0.9989354003367539</v>
+        <v>1.000144123964944</v>
       </c>
       <c r="S10">
-        <v>0.9989354003367539</v>
+        <v>1.000144123964944</v>
       </c>
       <c r="T10">
-        <v>1.001556859837208</v>
+        <v>0.9999168612004831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008010005345964</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="D11">
-        <v>0.9516534712227892</v>
+        <v>1.005302426911105</v>
       </c>
       <c r="E11">
-        <v>1.07464807564818</v>
+        <v>0.9927677798565065</v>
       </c>
       <c r="F11">
-        <v>1.021254790224411</v>
+        <v>0.9977590312372741</v>
       </c>
       <c r="G11">
-        <v>1.026705315571467</v>
+        <v>0.9977723031299367</v>
       </c>
       <c r="H11">
-        <v>0.9197604260146534</v>
+        <v>1.008268183688918</v>
       </c>
       <c r="I11">
-        <v>0.9197604260146534</v>
+        <v>1.008268183688918</v>
       </c>
       <c r="J11">
-        <v>1.008010005345964</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="K11">
-        <v>1.008010005345964</v>
+        <v>0.9977267806518191</v>
       </c>
       <c r="L11">
-        <v>1.026705315571467</v>
+        <v>0.9977723031299367</v>
       </c>
       <c r="M11">
-        <v>0.9732328707930602</v>
+        <v>1.003020243409427</v>
       </c>
       <c r="N11">
-        <v>0.9732328707930602</v>
+        <v>1.003020243409427</v>
       </c>
       <c r="O11">
-        <v>0.9660397376029698</v>
+        <v>1.00378097124332</v>
       </c>
       <c r="P11">
-        <v>0.9848252489773616</v>
+        <v>1.001255755823558</v>
       </c>
       <c r="Q11">
-        <v>0.9848252489773616</v>
+        <v>1.001255755823558</v>
       </c>
       <c r="R11">
-        <v>0.9906214380695122</v>
+        <v>1.000373512030623</v>
       </c>
       <c r="S11">
-        <v>0.9906214380695122</v>
+        <v>1.000373512030623</v>
       </c>
       <c r="T11">
-        <v>1.000338680671244</v>
+        <v>0.9999327509125933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9813788107894735</v>
+        <v>0.932418293130796</v>
       </c>
       <c r="D12">
-        <v>1.027521065473686</v>
+        <v>1.098685667280815</v>
       </c>
       <c r="E12">
-        <v>0.9687598036526331</v>
+        <v>0.8893561738417103</v>
       </c>
       <c r="F12">
-        <v>0.9883348814842092</v>
+        <v>0.9579760096845011</v>
       </c>
       <c r="G12">
-        <v>0.9911974629263159</v>
+        <v>0.9684935907163044</v>
       </c>
       <c r="H12">
-        <v>1.044723635052632</v>
+        <v>1.162411424369119</v>
       </c>
       <c r="I12">
-        <v>1.044723635052632</v>
+        <v>1.162411424369119</v>
       </c>
       <c r="J12">
-        <v>0.9813788107894735</v>
+        <v>0.932418293130796</v>
       </c>
       <c r="K12">
-        <v>0.9813788107894735</v>
+        <v>0.932418293130796</v>
       </c>
       <c r="L12">
-        <v>0.9911974629263159</v>
+        <v>0.9684935907163044</v>
       </c>
       <c r="M12">
-        <v>1.017960548989474</v>
+        <v>1.065452507542712</v>
       </c>
       <c r="N12">
-        <v>1.017960548989474</v>
+        <v>1.065452507542712</v>
       </c>
       <c r="O12">
-        <v>1.021147387817545</v>
+        <v>1.076530227455413</v>
       </c>
       <c r="P12">
-        <v>1.005766636256141</v>
+        <v>1.021107769405407</v>
       </c>
       <c r="Q12">
-        <v>1.005766636256141</v>
+        <v>1.021107769405406</v>
       </c>
       <c r="R12">
-        <v>0.9996696798894739</v>
+        <v>0.9989354003367539</v>
       </c>
       <c r="S12">
-        <v>0.9996696798894739</v>
+        <v>0.9989354003367539</v>
       </c>
       <c r="T12">
-        <v>1.000319276563158</v>
+        <v>1.001556859837208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.007264476919498</v>
+        <v>1.008010005345964</v>
       </c>
       <c r="D13">
-        <v>0.9812199864167003</v>
+        <v>0.9516534712227892</v>
       </c>
       <c r="E13">
-        <v>1.022655698552403</v>
+        <v>1.07464807564818</v>
       </c>
       <c r="F13">
-        <v>1.008857517533845</v>
+        <v>1.021254790224411</v>
       </c>
       <c r="G13">
-        <v>1.009513092470809</v>
+        <v>1.026705315571467</v>
       </c>
       <c r="H13">
-        <v>0.9635128101396636</v>
+        <v>0.9197604260146534</v>
       </c>
       <c r="I13">
-        <v>0.9635128101396636</v>
+        <v>0.9197604260146534</v>
       </c>
       <c r="J13">
-        <v>1.007264476919498</v>
+        <v>1.008010005345964</v>
       </c>
       <c r="K13">
-        <v>1.007264476919498</v>
+        <v>1.008010005345964</v>
       </c>
       <c r="L13">
-        <v>1.009513092470809</v>
+        <v>1.026705315571467</v>
       </c>
       <c r="M13">
-        <v>0.9865129513052364</v>
+        <v>0.9732328707930602</v>
       </c>
       <c r="N13">
-        <v>0.9865129513052364</v>
+        <v>0.9732328707930602</v>
       </c>
       <c r="O13">
-        <v>0.9847486296757243</v>
+        <v>0.9660397376029698</v>
       </c>
       <c r="P13">
-        <v>0.9934301265099904</v>
+        <v>0.9848252489773616</v>
       </c>
       <c r="Q13">
-        <v>0.9934301265099904</v>
+        <v>0.9848252489773616</v>
       </c>
       <c r="R13">
-        <v>0.9968887141123672</v>
+        <v>0.9906214380695122</v>
       </c>
       <c r="S13">
-        <v>0.9968887141123672</v>
+        <v>0.9906214380695122</v>
       </c>
       <c r="T13">
-        <v>0.9988372636721531</v>
+        <v>1.000338680671244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8825002800000008</v>
+        <v>0.9813788107894735</v>
       </c>
       <c r="D14">
-        <v>1.170530200000001</v>
+        <v>1.027521065473686</v>
       </c>
       <c r="E14">
-        <v>0.8091450800000003</v>
+        <v>0.9687598036526331</v>
       </c>
       <c r="F14">
-        <v>0.9274439499999987</v>
+        <v>0.9883348814842092</v>
       </c>
       <c r="G14">
-        <v>0.9459392899999988</v>
+        <v>0.9911974629263159</v>
       </c>
       <c r="H14">
-        <v>1.280454000000002</v>
+        <v>1.044723635052632</v>
       </c>
       <c r="I14">
-        <v>1.280454000000002</v>
+        <v>1.044723635052632</v>
       </c>
       <c r="J14">
-        <v>0.8825002800000008</v>
+        <v>0.9813788107894735</v>
       </c>
       <c r="K14">
-        <v>0.8825002800000008</v>
+        <v>0.9813788107894735</v>
       </c>
       <c r="L14">
-        <v>0.9459392899999988</v>
+        <v>0.9911974629263159</v>
       </c>
       <c r="M14">
-        <v>1.113196645</v>
+        <v>1.017960548989474</v>
       </c>
       <c r="N14">
-        <v>1.113196645</v>
+        <v>1.017960548989474</v>
       </c>
       <c r="O14">
-        <v>1.13230783</v>
+        <v>1.021147387817545</v>
       </c>
       <c r="P14">
-        <v>1.036297856666667</v>
+        <v>1.005766636256141</v>
       </c>
       <c r="Q14">
-        <v>1.036297856666667</v>
+        <v>1.005766636256141</v>
       </c>
       <c r="R14">
-        <v>0.9978484625000005</v>
+        <v>0.9996696798894739</v>
       </c>
       <c r="S14">
-        <v>0.9978484625000005</v>
+        <v>0.9996696798894739</v>
       </c>
       <c r="T14">
-        <v>1.0026688</v>
+        <v>1.000319276563158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.3679559</v>
+        <v>1.007264476919498</v>
       </c>
       <c r="D15">
-        <v>0.7938064500000001</v>
+        <v>0.9812199864167003</v>
       </c>
       <c r="E15">
-        <v>0.9618347200000001</v>
+        <v>1.022655698552403</v>
       </c>
       <c r="F15">
-        <v>1.1014624</v>
+        <v>1.008857517533845</v>
       </c>
       <c r="G15">
-        <v>0.99179431</v>
+        <v>1.009513092470809</v>
       </c>
       <c r="H15">
-        <v>0.5229061699999999</v>
+        <v>0.9635128101396636</v>
       </c>
       <c r="I15">
-        <v>0.5229061699999999</v>
+        <v>0.9635128101396636</v>
       </c>
       <c r="J15">
-        <v>1.3679559</v>
+        <v>1.007264476919498</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>1.007264476919498</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>1.009513092470809</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>0.9865129513052364</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>0.9865129513052364</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>0.9847486296757243</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>0.9934301265099904</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>0.9934301265099904</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>0.9968887141123672</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>0.9968887141123672</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>0.9988372636721531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0218788</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="D16">
-        <v>0.55493959</v>
+        <v>1.170530200000001</v>
       </c>
       <c r="E16">
-        <v>1.7607721</v>
+        <v>0.8091450800000003</v>
       </c>
       <c r="F16">
-        <v>1.1898645</v>
+        <v>0.9274439499999987</v>
       </c>
       <c r="G16">
-        <v>1.2589944</v>
+        <v>0.9459392899999988</v>
       </c>
       <c r="H16">
-        <v>0.31130847</v>
+        <v>1.280454000000002</v>
       </c>
       <c r="I16">
-        <v>0.31130847</v>
+        <v>1.280454000000002</v>
       </c>
       <c r="J16">
-        <v>1.0218788</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="K16">
-        <v>1.0218788</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="L16">
-        <v>1.2589944</v>
+        <v>0.9459392899999988</v>
       </c>
       <c r="M16">
-        <v>0.785151435</v>
+        <v>1.113196645</v>
       </c>
       <c r="N16">
-        <v>0.785151435</v>
+        <v>1.113196645</v>
       </c>
       <c r="O16">
-        <v>0.7084141533333334</v>
+        <v>1.13230783</v>
       </c>
       <c r="P16">
-        <v>0.8640605566666667</v>
+        <v>1.036297856666667</v>
       </c>
       <c r="Q16">
-        <v>0.8640605566666667</v>
+        <v>1.036297856666667</v>
       </c>
       <c r="R16">
-        <v>0.9035151175</v>
+        <v>0.9978484625000005</v>
       </c>
       <c r="S16">
-        <v>0.9035151175</v>
+        <v>0.9978484625000005</v>
       </c>
       <c r="T16">
-        <v>1.016292976666667</v>
+        <v>1.0026688</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.1681166</v>
+        <v>1.3679559</v>
       </c>
       <c r="D17">
-        <v>0.80395043</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="E17">
-        <v>1.1471085</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F17">
-        <v>1.0928667</v>
+        <v>1.1014624</v>
       </c>
       <c r="G17">
-        <v>1.0618997</v>
+        <v>0.99179431</v>
       </c>
       <c r="H17">
-        <v>0.60517666</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I17">
-        <v>0.60517666</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J17">
-        <v>1.1681166</v>
+        <v>1.3679559</v>
       </c>
       <c r="K17">
-        <v>1.1681166</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>1.0618997</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>0.8335381799999999</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>0.8335381799999999</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>0.8236755966666666</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>0.9450643199999998</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>0.9450643199999998</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>1.00082739</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>1.00082739</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>0.9798530983333333</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9779762506849315</v>
+        <v>1.0218788</v>
       </c>
       <c r="D18">
-        <v>1.05968380890411</v>
+        <v>0.55493959</v>
       </c>
       <c r="E18">
-        <v>0.9148720542465755</v>
+        <v>1.7607721</v>
       </c>
       <c r="F18">
-        <v>0.974877802191781</v>
+        <v>1.1898645</v>
       </c>
       <c r="G18">
-        <v>0.9736027239726029</v>
+        <v>1.2589944</v>
       </c>
       <c r="H18">
-        <v>1.091665568356164</v>
+        <v>0.31130847</v>
       </c>
       <c r="I18">
-        <v>1.091665568356164</v>
+        <v>0.31130847</v>
       </c>
       <c r="J18">
-        <v>0.9779762506849315</v>
+        <v>1.0218788</v>
       </c>
       <c r="K18">
-        <v>0.9779762506849315</v>
+        <v>1.0218788</v>
       </c>
       <c r="L18">
-        <v>0.9736027239726029</v>
+        <v>1.2589944</v>
       </c>
       <c r="M18">
-        <v>1.032634146164384</v>
+        <v>0.785151435</v>
       </c>
       <c r="N18">
-        <v>1.032634146164384</v>
+        <v>0.785151435</v>
       </c>
       <c r="O18">
-        <v>1.041650700410959</v>
+        <v>0.7084141533333334</v>
       </c>
       <c r="P18">
-        <v>1.014414847671233</v>
+        <v>0.8640605566666667</v>
       </c>
       <c r="Q18">
-        <v>1.014414847671233</v>
+        <v>0.8640605566666667</v>
       </c>
       <c r="R18">
-        <v>1.005305198424657</v>
+        <v>0.9035151175</v>
       </c>
       <c r="S18">
-        <v>1.005305198424657</v>
+        <v>0.9035151175</v>
       </c>
       <c r="T18">
-        <v>0.9987797013926941</v>
+        <v>1.016292976666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.957149043157895</v>
+        <v>1.1681166</v>
       </c>
       <c r="D19">
-        <v>0.9255484452631578</v>
+        <v>0.80395043</v>
       </c>
       <c r="E19">
-        <v>1.185405826315789</v>
+        <v>1.1471085</v>
       </c>
       <c r="F19">
-        <v>1.028142140526316</v>
+        <v>1.0928667</v>
       </c>
       <c r="G19">
-        <v>1.057357415263158</v>
+        <v>1.0618997</v>
       </c>
       <c r="H19">
-        <v>0.9204354005263159</v>
+        <v>0.60517666</v>
       </c>
       <c r="I19">
-        <v>0.9204354005263159</v>
+        <v>0.60517666</v>
       </c>
       <c r="J19">
-        <v>0.957149043157895</v>
+        <v>1.1681166</v>
       </c>
       <c r="K19">
-        <v>0.957149043157895</v>
+        <v>1.1681166</v>
       </c>
       <c r="L19">
-        <v>1.057357415263158</v>
+        <v>1.0618997</v>
       </c>
       <c r="M19">
-        <v>0.9888964078947369</v>
+        <v>0.8335381799999999</v>
       </c>
       <c r="N19">
-        <v>0.9888964078947369</v>
+        <v>0.8335381799999999</v>
       </c>
       <c r="O19">
-        <v>0.9677804203508772</v>
+        <v>0.8236755966666666</v>
       </c>
       <c r="P19">
-        <v>0.9783139529824562</v>
+        <v>0.9450643199999998</v>
       </c>
       <c r="Q19">
-        <v>0.9783139529824562</v>
+        <v>0.9450643199999998</v>
       </c>
       <c r="R19">
-        <v>0.9730227255263159</v>
+        <v>1.00082739</v>
       </c>
       <c r="S19">
-        <v>0.9730227255263159</v>
+        <v>1.00082739</v>
       </c>
       <c r="T19">
-        <v>1.012339711842105</v>
+        <v>0.9798530983333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.137981559473684</v>
+        <v>0.9779762506849315</v>
       </c>
       <c r="D20">
-        <v>0.8365319621052631</v>
+        <v>1.05968380890411</v>
       </c>
       <c r="E20">
-        <v>1.127018345263158</v>
+        <v>0.9148720542465755</v>
       </c>
       <c r="F20">
-        <v>1.077034315789474</v>
+        <v>0.974877802191781</v>
       </c>
       <c r="G20">
-        <v>1.051953135789473</v>
+        <v>0.9736027239726029</v>
       </c>
       <c r="H20">
-        <v>0.6727093168421053</v>
+        <v>1.091665568356164</v>
       </c>
       <c r="I20">
-        <v>0.6727093168421053</v>
+        <v>1.091665568356164</v>
       </c>
       <c r="J20">
-        <v>1.137981559473684</v>
+        <v>0.9779762506849315</v>
       </c>
       <c r="K20">
-        <v>1.137981559473684</v>
+        <v>0.9779762506849315</v>
       </c>
       <c r="L20">
-        <v>1.051953135789473</v>
+        <v>0.9736027239726029</v>
       </c>
       <c r="M20">
-        <v>0.8623312263157894</v>
+        <v>1.032634146164384</v>
       </c>
       <c r="N20">
-        <v>0.8623312263157894</v>
+        <v>1.032634146164384</v>
       </c>
       <c r="O20">
-        <v>0.8537314715789472</v>
+        <v>1.041650700410959</v>
       </c>
       <c r="P20">
-        <v>0.9542146707017544</v>
+        <v>1.014414847671233</v>
       </c>
       <c r="Q20">
-        <v>0.9542146707017544</v>
+        <v>1.014414847671233</v>
       </c>
       <c r="R20">
-        <v>1.000156392894737</v>
+        <v>1.005305198424657</v>
       </c>
       <c r="S20">
-        <v>1.000156392894737</v>
+        <v>1.005305198424657</v>
       </c>
       <c r="T20">
-        <v>0.9838714392105263</v>
+        <v>0.9987797013926941</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8683654100221746</v>
+        <v>0.957149043157895</v>
       </c>
       <c r="D21">
-        <v>1.069908386804345</v>
+        <v>0.9255484452631578</v>
       </c>
       <c r="E21">
-        <v>1.037042717634341</v>
+        <v>1.185405826315789</v>
       </c>
       <c r="F21">
-        <v>0.9613445094087235</v>
+        <v>1.028142140526316</v>
       </c>
       <c r="G21">
-        <v>0.9996075141009682</v>
+        <v>1.057357415263158</v>
       </c>
       <c r="H21">
-        <v>1.195336538870933</v>
+        <v>0.9204354005263159</v>
       </c>
       <c r="I21">
-        <v>1.195336538870933</v>
+        <v>0.9204354005263159</v>
       </c>
       <c r="J21">
-        <v>0.8683654100221746</v>
+        <v>0.957149043157895</v>
       </c>
       <c r="K21">
-        <v>0.8683654100221746</v>
+        <v>0.957149043157895</v>
       </c>
       <c r="L21">
-        <v>0.9996075141009682</v>
+        <v>1.057357415263158</v>
       </c>
       <c r="M21">
-        <v>1.097472026485951</v>
+        <v>0.9888964078947369</v>
       </c>
       <c r="N21">
-        <v>1.097472026485951</v>
+        <v>0.9888964078947369</v>
       </c>
       <c r="O21">
-        <v>1.088284146592082</v>
+        <v>0.9677804203508772</v>
       </c>
       <c r="P21">
-        <v>1.021103154331359</v>
+        <v>0.9783139529824562</v>
       </c>
       <c r="Q21">
-        <v>1.021103154331359</v>
+        <v>0.9783139529824562</v>
       </c>
       <c r="R21">
-        <v>0.9829187182540626</v>
+        <v>0.9730227255263159</v>
       </c>
       <c r="S21">
-        <v>0.9829187182540626</v>
+        <v>0.9730227255263159</v>
       </c>
       <c r="T21">
-        <v>1.021934179473581</v>
+        <v>1.012339711842105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.02939136338415</v>
+        <v>1.137981559473684</v>
       </c>
       <c r="D22">
-        <v>1.017725212957323</v>
+        <v>0.8365319621052631</v>
       </c>
       <c r="E22">
-        <v>0.9269737776323889</v>
+        <v>1.127018345263158</v>
       </c>
       <c r="F22">
-        <v>0.9958870446910365</v>
+        <v>1.077034315789474</v>
       </c>
       <c r="G22">
-        <v>0.9820992528748668</v>
+        <v>1.051953135789473</v>
       </c>
       <c r="H22">
-        <v>0.9966820425640548</v>
+        <v>0.6727093168421053</v>
       </c>
       <c r="I22">
-        <v>0.9966820425640548</v>
+        <v>0.6727093168421053</v>
       </c>
       <c r="J22">
-        <v>1.02939136338415</v>
+        <v>1.137981559473684</v>
       </c>
       <c r="K22">
-        <v>1.02939136338415</v>
+        <v>1.137981559473684</v>
       </c>
       <c r="L22">
-        <v>0.9820992528748668</v>
+        <v>1.051953135789473</v>
       </c>
       <c r="M22">
-        <v>0.9893906477194607</v>
+        <v>0.8623312263157894</v>
       </c>
       <c r="N22">
-        <v>0.9893906477194607</v>
+        <v>0.8623312263157894</v>
       </c>
       <c r="O22">
-        <v>0.9988355027987482</v>
+        <v>0.8537314715789472</v>
       </c>
       <c r="P22">
-        <v>1.00272421960769</v>
+        <v>0.9542146707017544</v>
       </c>
       <c r="Q22">
-        <v>1.00272421960769</v>
+        <v>0.9542146707017544</v>
       </c>
       <c r="R22">
-        <v>1.009391005551805</v>
+        <v>1.000156392894737</v>
       </c>
       <c r="S22">
-        <v>1.009391005551805</v>
+        <v>1.000156392894737</v>
       </c>
       <c r="T22">
-        <v>0.9914597823506366</v>
+        <v>0.9838714392105263</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.007948850453734</v>
+        <v>0.8683654100221746</v>
       </c>
       <c r="D23">
-        <v>1.010700930437461</v>
+        <v>1.069908386804345</v>
       </c>
       <c r="E23">
-        <v>0.9680761378232576</v>
+        <v>1.037042717634341</v>
       </c>
       <c r="F23">
-        <v>0.996808684821475</v>
+        <v>0.9613445094087235</v>
       </c>
       <c r="G23">
-        <v>0.9922242618361476</v>
+        <v>0.9996075141009682</v>
       </c>
       <c r="H23">
-        <v>1.004768340306986</v>
+        <v>1.195336538870933</v>
       </c>
       <c r="I23">
-        <v>1.004768340306986</v>
+        <v>1.195336538870933</v>
       </c>
       <c r="J23">
-        <v>1.007948850453734</v>
+        <v>0.8683654100221746</v>
       </c>
       <c r="K23">
-        <v>1.007948850453734</v>
+        <v>0.8683654100221746</v>
       </c>
       <c r="L23">
-        <v>0.9922242618361476</v>
+        <v>0.9996075141009682</v>
       </c>
       <c r="M23">
-        <v>0.9984963010715668</v>
+        <v>1.097472026485951</v>
       </c>
       <c r="N23">
-        <v>0.9984963010715668</v>
+        <v>1.097472026485951</v>
       </c>
       <c r="O23">
-        <v>1.002564510860198</v>
+        <v>1.088284146592082</v>
       </c>
       <c r="P23">
-        <v>1.001647150865623</v>
+        <v>1.021103154331359</v>
       </c>
       <c r="Q23">
-        <v>1.001647150865623</v>
+        <v>1.021103154331359</v>
       </c>
       <c r="R23">
-        <v>1.003222575762651</v>
+        <v>0.9829187182540626</v>
       </c>
       <c r="S23">
-        <v>1.003222575762651</v>
+        <v>0.9829187182540626</v>
       </c>
       <c r="T23">
-        <v>0.9967545342798436</v>
+        <v>1.021934179473581</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9956074142914959</v>
+        <v>1.02939136338415</v>
       </c>
       <c r="D24">
-        <v>1.002587136763213</v>
+        <v>1.017725212957323</v>
       </c>
       <c r="E24">
-        <v>1.005855236564921</v>
+        <v>0.9269737776323889</v>
       </c>
       <c r="F24">
-        <v>0.9974282299180249</v>
+        <v>0.9958870446910365</v>
       </c>
       <c r="G24">
-        <v>0.998177534307139</v>
+        <v>0.9820992528748668</v>
       </c>
       <c r="H24">
-        <v>1.01543964510689</v>
+        <v>0.9966820425640548</v>
       </c>
       <c r="I24">
-        <v>1.01543964510689</v>
+        <v>0.9966820425640548</v>
       </c>
       <c r="J24">
-        <v>0.9956074142914959</v>
+        <v>1.02939136338415</v>
       </c>
       <c r="K24">
-        <v>0.9956074142914959</v>
+        <v>1.02939136338415</v>
       </c>
       <c r="L24">
-        <v>0.998177534307139</v>
+        <v>0.9820992528748668</v>
       </c>
       <c r="M24">
-        <v>1.006808589707014</v>
+        <v>0.9893906477194607</v>
       </c>
       <c r="N24">
-        <v>1.006808589707014</v>
+        <v>0.9893906477194607</v>
       </c>
       <c r="O24">
-        <v>1.005401438725747</v>
+        <v>0.9988355027987482</v>
       </c>
       <c r="P24">
-        <v>1.003074864568508</v>
+        <v>1.00272421960769</v>
       </c>
       <c r="Q24">
-        <v>1.003074864568508</v>
+        <v>1.00272421960769</v>
       </c>
       <c r="R24">
-        <v>1.001208001999255</v>
+        <v>1.009391005551805</v>
       </c>
       <c r="S24">
-        <v>1.001208001999255</v>
+        <v>1.009391005551805</v>
       </c>
       <c r="T24">
-        <v>1.002515866158614</v>
+        <v>0.9914597823506366</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.17824657140435</v>
+        <v>1.007948850453734</v>
       </c>
       <c r="D25">
-        <v>0.819984071284102</v>
+        <v>1.010700930437461</v>
       </c>
       <c r="E25">
-        <v>1.113085200036714</v>
+        <v>0.9680761378232576</v>
       </c>
       <c r="F25">
-        <v>1.085450445647988</v>
+        <v>0.996808684821475</v>
       </c>
       <c r="G25">
-        <v>1.047262751355396</v>
+        <v>0.9922242618361476</v>
       </c>
       <c r="H25">
-        <v>0.6300009916270652</v>
+        <v>1.004768340306986</v>
       </c>
       <c r="I25">
-        <v>0.6300009916270652</v>
+        <v>1.004768340306986</v>
       </c>
       <c r="J25">
-        <v>1.17824657140435</v>
+        <v>1.007948850453734</v>
       </c>
       <c r="K25">
-        <v>1.17824657140435</v>
+        <v>1.007948850453734</v>
       </c>
       <c r="L25">
-        <v>1.047262751355396</v>
+        <v>0.9922242618361476</v>
       </c>
       <c r="M25">
-        <v>0.8386318714912304</v>
+        <v>0.9984963010715668</v>
       </c>
       <c r="N25">
-        <v>0.8386318714912304</v>
+        <v>0.9984963010715668</v>
       </c>
       <c r="O25">
-        <v>0.8324159380888543</v>
+        <v>1.002564510860198</v>
       </c>
       <c r="P25">
-        <v>0.9518367714622705</v>
+        <v>1.001647150865623</v>
       </c>
       <c r="Q25">
-        <v>0.9518367714622705</v>
+        <v>1.001647150865623</v>
       </c>
       <c r="R25">
-        <v>1.00843922144779</v>
+        <v>1.003222575762651</v>
       </c>
       <c r="S25">
-        <v>1.00843922144779</v>
+        <v>1.003222575762651</v>
       </c>
       <c r="T25">
-        <v>0.979005005225936</v>
+        <v>0.9967545342798436</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9772267175201372</v>
+        <v>0.9956074142914959</v>
       </c>
       <c r="D26">
-        <v>0.9556357523899386</v>
+        <v>1.002587136763213</v>
       </c>
       <c r="E26">
-        <v>1.095954236214411</v>
+        <v>1.005855236564921</v>
       </c>
       <c r="F26">
-        <v>1.019715675088648</v>
+        <v>0.9974282299180249</v>
       </c>
       <c r="G26">
-        <v>1.037200843262861</v>
+        <v>0.998177534307139</v>
       </c>
       <c r="H26">
-        <v>0.9289915199585504</v>
+        <v>1.01543964510689</v>
       </c>
       <c r="I26">
-        <v>0.9289915199585504</v>
+        <v>1.01543964510689</v>
       </c>
       <c r="J26">
-        <v>0.9772267175201372</v>
+        <v>0.9956074142914959</v>
       </c>
       <c r="K26">
-        <v>0.9772267175201372</v>
+        <v>0.9956074142914959</v>
       </c>
       <c r="L26">
-        <v>1.037200843262861</v>
+        <v>0.998177534307139</v>
       </c>
       <c r="M26">
-        <v>0.9830961816107058</v>
+        <v>1.006808589707014</v>
       </c>
       <c r="N26">
-        <v>0.9830961816107058</v>
+        <v>1.006808589707014</v>
       </c>
       <c r="O26">
-        <v>0.9739427052037835</v>
+        <v>1.005401438725747</v>
       </c>
       <c r="P26">
-        <v>0.9811396935805163</v>
+        <v>1.003074864568508</v>
       </c>
       <c r="Q26">
-        <v>0.9811396935805163</v>
+        <v>1.003074864568508</v>
       </c>
       <c r="R26">
-        <v>0.9801614495654216</v>
+        <v>1.001208001999255</v>
       </c>
       <c r="S26">
-        <v>0.9801614495654216</v>
+        <v>1.001208001999255</v>
       </c>
       <c r="T26">
-        <v>1.002454124072425</v>
+        <v>1.002515866158614</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.003742965697502</v>
+        <v>1.17824657140435</v>
       </c>
       <c r="D27">
-        <v>1.008426410030241</v>
+        <v>0.819984071284102</v>
       </c>
       <c r="E27">
-        <v>0.9910713465288216</v>
+        <v>1.113085200036714</v>
       </c>
       <c r="F27">
-        <v>0.99401654857281</v>
+        <v>1.085450445647988</v>
       </c>
       <c r="G27">
-        <v>0.9900139067854545</v>
+        <v>1.047262751355396</v>
       </c>
       <c r="H27">
-        <v>1.031917744130109</v>
+        <v>0.6300009916270652</v>
       </c>
       <c r="I27">
-        <v>1.031917744130109</v>
+        <v>0.6300009916270652</v>
       </c>
       <c r="J27">
-        <v>1.003742965697502</v>
+        <v>1.17824657140435</v>
       </c>
       <c r="K27">
-        <v>1.003742965697502</v>
+        <v>1.17824657140435</v>
       </c>
       <c r="L27">
-        <v>0.9900139067854545</v>
+        <v>1.047262751355396</v>
       </c>
       <c r="M27">
-        <v>1.010965825457782</v>
+        <v>0.8386318714912304</v>
       </c>
       <c r="N27">
-        <v>1.010965825457782</v>
+        <v>0.8386318714912304</v>
       </c>
       <c r="O27">
-        <v>1.010119353648602</v>
+        <v>0.8324159380888543</v>
       </c>
       <c r="P27">
-        <v>1.008558205537689</v>
+        <v>0.9518367714622705</v>
       </c>
       <c r="Q27">
-        <v>1.008558205537688</v>
+        <v>0.9518367714622705</v>
       </c>
       <c r="R27">
-        <v>1.007354395577642</v>
+        <v>1.00843922144779</v>
       </c>
       <c r="S27">
-        <v>1.007354395577642</v>
+        <v>1.00843922144779</v>
       </c>
       <c r="T27">
-        <v>1.003198153624156</v>
+        <v>0.979005005225936</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.013525451360975</v>
+        <v>0.9772267175201372</v>
       </c>
       <c r="D28">
-        <v>0.970782455486579</v>
+        <v>0.9556357523899386</v>
       </c>
       <c r="E28">
-        <v>1.034568735434026</v>
+        <v>1.095954236214411</v>
       </c>
       <c r="F28">
-        <v>1.013440259137414</v>
+        <v>1.019715675088648</v>
       </c>
       <c r="G28">
-        <v>1.013405205744179</v>
+        <v>1.037200843262861</v>
       </c>
       <c r="H28">
-        <v>0.9455184314157964</v>
+        <v>0.9289915199585504</v>
       </c>
       <c r="I28">
-        <v>0.9455184314157964</v>
+        <v>0.9289915199585504</v>
       </c>
       <c r="J28">
-        <v>1.013525451360975</v>
+        <v>0.9772267175201372</v>
       </c>
       <c r="K28">
-        <v>1.013525451360975</v>
+        <v>0.9772267175201372</v>
       </c>
       <c r="L28">
-        <v>1.013405205744179</v>
+        <v>1.037200843262861</v>
       </c>
       <c r="M28">
-        <v>0.9794618185799875</v>
+        <v>0.9830961816107058</v>
       </c>
       <c r="N28">
-        <v>0.9794618185799875</v>
+        <v>0.9830961816107058</v>
       </c>
       <c r="O28">
-        <v>0.9765686975488513</v>
+        <v>0.9739427052037835</v>
       </c>
       <c r="P28">
-        <v>0.9908163628403166</v>
+        <v>0.9811396935805163</v>
       </c>
       <c r="Q28">
-        <v>0.9908163628403166</v>
+        <v>0.9811396935805163</v>
       </c>
       <c r="R28">
-        <v>0.9964936349704812</v>
+        <v>0.9801614495654216</v>
       </c>
       <c r="S28">
-        <v>0.9964936349704812</v>
+        <v>0.9801614495654216</v>
       </c>
       <c r="T28">
-        <v>0.9985400897631614</v>
+        <v>1.002454124072425</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.003742965697502</v>
+      </c>
+      <c r="D29">
+        <v>1.008426410030241</v>
+      </c>
+      <c r="E29">
+        <v>0.9910713465288216</v>
+      </c>
+      <c r="F29">
+        <v>0.99401654857281</v>
+      </c>
+      <c r="G29">
+        <v>0.9900139067854545</v>
+      </c>
+      <c r="H29">
+        <v>1.031917744130109</v>
+      </c>
+      <c r="I29">
+        <v>1.031917744130109</v>
+      </c>
+      <c r="J29">
+        <v>1.003742965697502</v>
+      </c>
+      <c r="K29">
+        <v>1.003742965697502</v>
+      </c>
+      <c r="L29">
+        <v>0.9900139067854545</v>
+      </c>
+      <c r="M29">
+        <v>1.010965825457782</v>
+      </c>
+      <c r="N29">
+        <v>1.010965825457782</v>
+      </c>
+      <c r="O29">
+        <v>1.010119353648602</v>
+      </c>
+      <c r="P29">
+        <v>1.008558205537689</v>
+      </c>
+      <c r="Q29">
+        <v>1.008558205537688</v>
+      </c>
+      <c r="R29">
+        <v>1.007354395577642</v>
+      </c>
+      <c r="S29">
+        <v>1.007354395577642</v>
+      </c>
+      <c r="T29">
+        <v>1.003198153624156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.013525451360975</v>
+      </c>
+      <c r="D30">
+        <v>0.970782455486579</v>
+      </c>
+      <c r="E30">
+        <v>1.034568735434026</v>
+      </c>
+      <c r="F30">
+        <v>1.013440259137414</v>
+      </c>
+      <c r="G30">
+        <v>1.013405205744179</v>
+      </c>
+      <c r="H30">
+        <v>0.9455184314157964</v>
+      </c>
+      <c r="I30">
+        <v>0.9455184314157964</v>
+      </c>
+      <c r="J30">
+        <v>1.013525451360975</v>
+      </c>
+      <c r="K30">
+        <v>1.013525451360975</v>
+      </c>
+      <c r="L30">
+        <v>1.013405205744179</v>
+      </c>
+      <c r="M30">
+        <v>0.9794618185799875</v>
+      </c>
+      <c r="N30">
+        <v>0.9794618185799875</v>
+      </c>
+      <c r="O30">
+        <v>0.9765686975488513</v>
+      </c>
+      <c r="P30">
+        <v>0.9908163628403166</v>
+      </c>
+      <c r="Q30">
+        <v>0.9908163628403166</v>
+      </c>
+      <c r="R30">
+        <v>0.9964936349704812</v>
+      </c>
+      <c r="S30">
+        <v>0.9964936349704812</v>
+      </c>
+      <c r="T30">
+        <v>0.9985400897631614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.053859412253848</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9404933276330857</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.044733036529922</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.027599345084282</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.016792756679217</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8835758577888282</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8835758577888282</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.053859412253848</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.053859412253848</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.016792756679217</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9501843072340227</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9501843072340227</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9469539807003771</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9847426755739646</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9847426755739646</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.002021859743935</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.002021859743935</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.994508955994864</v>
       </c>
     </row>
